--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE4E891-7698-4B78-88E1-3FBD373E9510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EB63C0-C8E7-4032-8F27-A6492903C3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="276" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -167,10 +167,6 @@
     <t>ActionCallAutoUnitWhenUmbellate</t>
   </si>
   <si>
-    <t>1;false;false;"";0,0,0;0,0,0;false;true;true;100;360</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>actionCallAutoUnitArea</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -183,10 +179,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1;false;false;"";0,0,0;0,0,0;false;true;10;6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DamageAllot</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -331,13 +323,73 @@
   <si>
     <t>One1</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line1</t>
+  </si>
+  <si>
+    <t>Circle1</t>
+  </si>
+  <si>
+    <t>直线火焰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形毒雾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAutoUnitWhenRectangle</t>
+  </si>
+  <si>
+    <t>DamageUnit_1</t>
+  </si>
+  <si>
+    <t>DamageAllotTotal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSolo1</t>
+  </si>
+  <si>
+    <t>PlayerAoe1</t>
+  </si>
+  <si>
+    <t>EnemySolo1</t>
+  </si>
+  <si>
+    <t>敌人单体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false;1;false;false;"";0,0,0;0,0,0;false;true;10;6</t>
+  </si>
+  <si>
+    <t>false;1;false;false;"";0,0,0;0,0,0;false;true;true;100;360</t>
+  </si>
+  <si>
+    <t>false;-1;false;false;"";0,0,0;0,0,0;false;false;true;100;360</t>
+  </si>
+  <si>
+    <t>false;-1;false;false;"";0,0,0;0,0,0;true;true;100;10</t>
+  </si>
+  <si>
+    <t>false;1;false;false;"";0,0,0;0,0,0;false;false;true;100;360</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +433,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -486,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -503,6 +562,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -798,22 +863,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="10" width="25.21875" customWidth="1"/>
-    <col min="11" max="21" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -832,34 +908,34 @@
         <v>3</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="18"/>
       <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="16"/>
+      <c r="L1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="18"/>
       <c r="V1"/>
       <c r="W1"/>
       <c r="X1"/>
@@ -893,28 +969,28 @@
         <v>14</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="R2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="V2"/>
       <c r="W2"/>
@@ -940,34 +1016,34 @@
         <v>5</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="21"/>
       <c r="K3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="N3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="21"/>
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
@@ -1024,10 +1100,10 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>18</v>
@@ -1039,32 +1115,32 @@
         <v>16</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="R5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="V5"/>
       <c r="W5"/>
@@ -1076,7 +1152,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1087,7 +1163,7 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="13" t="b">
         <v>1</v>
@@ -1096,31 +1172,31 @@
         <v>0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -1133,12 +1209,12 @@
       <c r="J7" s="8"/>
       <c r="M7" s="6"/>
       <c r="O7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1149,7 +1225,7 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="13" t="b">
         <v>1</v>
@@ -1161,25 +1237,25 @@
         <v>20</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -1191,23 +1267,23 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="O9" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="str">
-        <f>B10&amp;"_"&amp;C10</f>
+        <f t="shared" ref="D10:D18" si="0">B10&amp;"_"&amp;C10</f>
         <v>AttackArea_3</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="13" t="b">
         <v>1</v>
@@ -1216,39 +1292,41 @@
         <v>0</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="J10" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" t="str">
-        <f>B11&amp;"_"&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>AttackArea_One1</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="13" t="b">
         <v>1</v>
@@ -1257,42 +1335,44 @@
         <v>0</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="J11" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="K11" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" t="str">
-        <f>B12&amp;"_"&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>AttackArea_HoverTank1</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G12" s="13" t="b">
         <v>1</v>
@@ -1301,42 +1381,44 @@
         <v>0</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="J12" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="K12" t="s">
         <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" t="str">
-        <f>B13&amp;"_"&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>AttackArea_Bullet1</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="13" t="b">
         <v>1</v>
@@ -1345,27 +1427,205 @@
         <v>0</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="J13" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="K13" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>49</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>AttackArea_PlayerSolo1</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>AttackArea_PlayerAoe1</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>AttackArea_EnemySolo1</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>AttackArea_Line1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>AttackArea_Circle1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EB63C0-C8E7-4032-8F27-A6492903C3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F0DC1B-1EE6-430A-A298-98981474D0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
   <si>
     <t>##var</t>
   </si>
@@ -171,10 +171,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ActionCallAutoUnit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCallAutoUnitWhenRectangle</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -270,14 +266,6 @@
     <t>PlayAudio_1</t>
   </si>
   <si>
-    <t>CreateEffect_4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateEffect_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string#ref=ActionCfg_DamageUnitCategory?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -303,13 +291,6 @@
   </si>
   <si>
     <t>HoverTank1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateEffect_BeHit1</t>
-  </si>
-  <si>
-    <t>CreateEffect_BeHit1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -370,19 +351,82 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>false;1;false;false;"";0,0,0;0,0,0;false;true;10;6</t>
-  </si>
-  <si>
-    <t>false;1;false;false;"";0,0,0;0,0,0;false;true;true;100;360</t>
-  </si>
-  <si>
-    <t>false;-1;false;false;"";0,0,0;0,0,0;false;false;true;100;360</t>
-  </si>
-  <si>
-    <t>false;-1;false;false;"";0,0,0;0,0,0;true;true;100;10</t>
-  </si>
-  <si>
-    <t>false;1;false;false;"";0,0,0;0,0,0;false;false;true;100;360</t>
+    <r>
+      <t>PlayerAoe1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体的目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体攻击的目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_0</t>
+  </si>
+  <si>
+    <t>溅射周围单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_PlayerAoe1</t>
+  </si>
+  <si>
+    <t>ActionCallParam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false;-1;false;false;"";0,0,0;0,0,0;false;true;10;6;false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false;-1;false;false;"";0,0,0;0,0,0;false;true;true;100;360;false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false;1;false;false;"";0,0,0;0,0,0;false;false;true;100;360;false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false;-1;false;false;"";0,0,0;0,0,0;false;false;true;5;360;false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false;-1;false;false;"";0,0,0;0,0,0;true;true;100;10;false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false;-1;false;false;"";0,0,0;0,0,0;false;false;true;100;360;false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_4</t>
+  </si>
+  <si>
+    <t>EffectCreate_1</t>
+  </si>
+  <si>
+    <t>EffectCreate_BeHit1</t>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerSolo1_Hit</t>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerAoe1_Hit</t>
   </si>
 </sst>
 </file>
@@ -444,7 +488,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,8 +507,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -535,6 +585,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -545,7 +624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -562,10 +641,45 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
@@ -863,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -908,34 +1022,34 @@
         <v>3</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="18"/>
+      <c r="J1" s="39"/>
       <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="16" t="s">
+      <c r="L1" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="39"/>
+      <c r="N1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39"/>
       <c r="V1"/>
       <c r="W1"/>
       <c r="X1"/>
@@ -969,28 +1083,28 @@
         <v>14</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="V2"/>
       <c r="W2"/>
@@ -1016,34 +1130,34 @@
         <v>5</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="42"/>
       <c r="K3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="42"/>
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
@@ -1100,10 +1214,10 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>18</v>
@@ -1115,32 +1229,32 @@
         <v>16</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="R5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="V5"/>
       <c r="W5"/>
@@ -1163,7 +1277,7 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="13" t="b">
         <v>1</v>
@@ -1172,31 +1286,31 @@
         <v>0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -1209,12 +1323,12 @@
       <c r="J7" s="8"/>
       <c r="M7" s="6"/>
       <c r="O7" s="6" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1225,7 +1339,7 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="13" t="b">
         <v>1</v>
@@ -1237,25 +1351,25 @@
         <v>20</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -1267,23 +1381,23 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="O9" s="6" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:D18" si="0">B10&amp;"_"&amp;C10</f>
+        <f t="shared" ref="D10:D20" si="0">B10&amp;"_"&amp;C10</f>
         <v>AttackArea_3</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="13" t="b">
         <v>1</v>
@@ -1292,33 +1406,33 @@
         <v>0</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" s="8" t="b">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -1326,7 +1440,7 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="13" t="b">
         <v>1</v>
@@ -1335,36 +1449,36 @@
         <v>0</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" s="8" t="b">
         <v>0</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -1372,7 +1486,7 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="13" t="b">
         <v>1</v>
@@ -1381,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J12" s="8" t="b">
         <v>0</v>
@@ -1390,27 +1504,27 @@
         <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -1418,7 +1532,7 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="13" t="b">
         <v>1</v>
@@ -1427,205 +1541,277 @@
         <v>0</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J13" s="8" t="b">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="str">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="24" t="str">
         <f t="shared" si="0"/>
         <v>AttackArea_PlayerSolo1</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="E14" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="24">
+        <v>0</v>
+      </c>
+      <c r="S14" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>AttackArea_PlayerAoe1First</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="31">
+        <v>0</v>
+      </c>
+      <c r="S15" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
+      <c r="R16" s="31">
+        <v>0</v>
+      </c>
+      <c r="S16" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="L14" t="s">
-        <v>28</v>
-      </c>
-      <c r="S14" s="6"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="str">
+      <c r="D17" s="31" t="str">
         <f t="shared" si="0"/>
         <v>AttackArea_PlayerAoe1</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8" t="s">
+      <c r="E17" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S15" s="6"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="str">
+      <c r="J17" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" s="30"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>AttackArea_EnemySolo1</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" t="s">
-        <v>28</v>
-      </c>
-      <c r="S16" s="6"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
         <v>62</v>
       </c>
-      <c r="D17" t="str">
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>AttackArea_Line1</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D18" t="str">
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="19" t="str">
         <f t="shared" si="0"/>
         <v>AttackArea_Circle1</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8" t="s">
+      <c r="E20" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E19" s="6"/>
+      <c r="J20" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" s="18"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F0DC1B-1EE6-430A-A298-98981474D0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2E826F-497C-4B65-8C70-DDE418E5D295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="101">
   <si>
     <t>##var</t>
   </si>
@@ -323,9 +323,6 @@
     <t>ActionCallAutoUnitWhenRectangle</t>
   </si>
   <si>
-    <t>DamageUnit_1</t>
-  </si>
-  <si>
     <t>DamageAllotTotal</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -406,14 +403,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>false;-1;false;false;"";0,0,0;0,0,0;true;true;100;10;false</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>false;-1;false;false;"";0,0,0;0,0,0;false;false;true;100;360;false</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EffectCreate_4</t>
   </si>
   <si>
@@ -427,6 +416,74 @@
   </si>
   <si>
     <t>EffectCreate_PlayerAoe1_Hit</t>
+  </si>
+  <si>
+    <t>false;-1;false;false;"";0,0,0;0,0,0;true;true;10;100;false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAutoSelf</t>
+  </si>
+  <si>
+    <r>
+      <t>DamageUnit_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_6</t>
+  </si>
+  <si>
+    <t>false;-1;false;false;"";0,0,0;0,0,0;false;false;true;15;360;false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSolo2</t>
+  </si>
+  <si>
+    <t>PlayerSolo3</t>
+  </si>
+  <si>
+    <t>PlayerAoe2</t>
+  </si>
+  <si>
+    <t>PlayerAoe3</t>
+  </si>
+  <si>
+    <t>群体减速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlowAoe1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlowAoe2</t>
+  </si>
+  <si>
+    <t>SlowAoe3</t>
+  </si>
+  <si>
+    <t>BuffAdd_Slow</t>
   </si>
 </sst>
 </file>
@@ -624,7 +681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -659,12 +716,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -977,10 +1028,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R26" sqref="R26:S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -989,12 +1041,12 @@
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" customWidth="1"/>
     <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.44140625" customWidth="1"/>
     <col min="11" max="11" width="40.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
@@ -1027,29 +1079,29 @@
       <c r="H1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="37" t="s">
+      <c r="M1" s="37"/>
+      <c r="N1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="37" t="s">
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="37"/>
       <c r="V1"/>
       <c r="W1"/>
       <c r="X1"/>
@@ -1135,29 +1187,29 @@
       <c r="H3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="42"/>
+      <c r="I3" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="40"/>
       <c r="K3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="40" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="40" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="42"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="40"/>
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
@@ -1289,7 +1341,7 @@
         <v>22</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -1323,7 +1375,7 @@
       <c r="J7" s="8"/>
       <c r="M7" s="6"/>
       <c r="O7" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -1351,7 +1403,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
@@ -1381,7 +1433,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="O9" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -1392,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:D20" si="0">B10&amp;"_"&amp;C10</f>
+        <f t="shared" ref="D10:D25" si="0">B10&amp;"_"&amp;C10</f>
         <v>AttackArea_3</v>
       </c>
       <c r="E10" s="7"/>
@@ -1470,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -1516,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -1562,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -1571,14 +1623,14 @@
         <v>29</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="24" t="str">
         <f t="shared" si="0"/>
         <v>AttackArea_PlayerSolo1</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25" t="b">
@@ -1587,14 +1639,14 @@
       <c r="H14" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>62</v>
+      <c r="I14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="L14" s="24" t="s">
         <v>27</v>
@@ -1603,215 +1655,532 @@
         <v>0</v>
       </c>
       <c r="S14" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="31" t="str">
+      <c r="C15" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="24" t="str">
+        <f t="shared" ref="D15" si="1">B15&amp;"_"&amp;C15</f>
+        <v>AttackArea_PlayerSolo2</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="24">
+        <v>0</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="24" t="str">
+        <f t="shared" ref="D16" si="2">B16&amp;"_"&amp;C16</f>
+        <v>AttackArea_PlayerSolo3</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="24">
+        <v>0</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="29" t="str">
         <f t="shared" si="0"/>
         <v>AttackArea_PlayerAoe1First</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E17" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G17" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="31" t="s">
+      <c r="L17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="31">
-        <v>0</v>
-      </c>
-      <c r="S15" s="30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
-      <c r="R16" s="31">
-        <v>0</v>
-      </c>
-      <c r="S16" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="30" t="s">
+      <c r="R17" s="29">
+        <v>0</v>
+      </c>
+      <c r="S17" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="R18" s="29">
+        <v>0</v>
+      </c>
+      <c r="S18" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="31" t="str">
+      <c r="C19" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="29" t="str">
         <f t="shared" si="0"/>
         <v>AttackArea_PlayerAoe1</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="35" t="s">
+      <c r="E19" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="31" t="s">
+      <c r="J19" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="S17" s="30"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="6" t="s">
+      <c r="S19" s="28"/>
+    </row>
+    <row r="20" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="str">
+      <c r="C20" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="29" t="str">
+        <f t="shared" ref="D20" si="3">B20&amp;"_"&amp;C20</f>
+        <v>AttackArea_PlayerAoe2</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" s="28"/>
+    </row>
+    <row r="21" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="29" t="str">
+        <f t="shared" ref="D21" si="4">B21&amp;"_"&amp;C21</f>
+        <v>AttackArea_PlayerAoe3</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" s="28"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>AttackArea_EnemySolo1</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8" t="s">
+      <c r="E22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="J22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" t="s">
         <v>27</v>
       </c>
-      <c r="S18" s="6"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="6" t="s">
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C23" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>AttackArea_Line1</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="16" t="s">
+      <c r="G23" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="J23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18" t="s">
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="19" t="str">
+      <c r="D24" s="19" t="str">
         <f t="shared" si="0"/>
         <v>AttackArea_Circle1</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="21" t="s">
+      <c r="G24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="19" t="s">
+      <c r="J24" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="O20" s="18"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E21" s="6"/>
+      <c r="O24" s="18"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>AttackArea_Dot</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="29" t="str">
+        <f t="shared" ref="D26:D28" si="5">B26&amp;"_"&amp;C26</f>
+        <v>AttackArea_SlowAoe1</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" s="29">
+        <v>0</v>
+      </c>
+      <c r="S26" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="29" t="str">
+        <f t="shared" si="5"/>
+        <v>AttackArea_SlowAoe2</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" s="29">
+        <v>0</v>
+      </c>
+      <c r="S27" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="29" t="str">
+        <f t="shared" si="5"/>
+        <v>AttackArea_SlowAoe3</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" s="29">
+        <v>0</v>
+      </c>
+      <c r="S28" s="29" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2E826F-497C-4B65-8C70-DDE418E5D295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293C53A7-85BF-40A6-BFBE-49A657D108C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="106">
   <si>
     <t>##var</t>
   </si>
@@ -484,6 +473,49 @@
   </si>
   <si>
     <t>BuffAdd_Slow</t>
+  </si>
+  <si>
+    <t>种子治疗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周围加血</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeedHeal1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>false;-1;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;false;"";0,0,0;0,0,0;false;false;true;5;360;false</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1028,37 +1060,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R26" sqref="R26:S28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.44140625" customWidth="1"/>
-    <col min="11" max="11" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.5" customWidth="1"/>
+    <col min="11" max="11" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.125" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1142,7 @@
       <c r="AA1"/>
       <c r="AB1"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1198,7 @@
       <c r="AA2"/>
       <c r="AB2"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1218,7 +1250,7 @@
       <c r="AA3"/>
       <c r="AB3"/>
     </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1250,7 +1282,7 @@
       <c r="AA4"/>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1316,7 +1348,7 @@
       <c r="AA5"/>
       <c r="AB5"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
@@ -1365,7 +1397,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -1378,7 +1410,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
@@ -1424,7 +1456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1436,7 +1468,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
@@ -1479,7 +1511,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
@@ -1525,7 +1557,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1571,7 +1603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
@@ -1617,7 +1649,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
       <c r="B14" s="23" t="s">
         <v>29</v>
@@ -1658,7 +1690,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22"/>
       <c r="B15" s="23" t="s">
         <v>29</v>
@@ -1699,7 +1731,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
       <c r="B16" s="23" t="s">
         <v>29</v>
@@ -1740,7 +1772,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="27" t="s">
         <v>29</v>
@@ -1783,7 +1815,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -1800,7 +1832,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="28" t="s">
         <v>29</v>
@@ -1838,7 +1870,7 @@
       </c>
       <c r="S19" s="28"/>
     </row>
-    <row r="20" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="28" t="s">
         <v>29</v>
@@ -1876,7 +1908,7 @@
       </c>
       <c r="S20" s="28"/>
     </row>
-    <row r="21" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="28" t="s">
         <v>29</v>
@@ -1914,7 +1946,7 @@
       </c>
       <c r="S21" s="28"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="6" t="s">
         <v>29</v>
@@ -1950,7 +1982,7 @@
       </c>
       <c r="S22" s="6"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="6" t="s">
         <v>29</v>
@@ -1985,7 +2017,7 @@
       </c>
       <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="18" t="s">
         <v>29</v>
@@ -2020,7 +2052,7 @@
       </c>
       <c r="O24" s="18"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B25" s="18" t="s">
         <v>29</v>
       </c>
@@ -2053,7 +2085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="28" t="s">
         <v>29</v>
@@ -2062,7 +2094,7 @@
         <v>97</v>
       </c>
       <c r="D26" s="29" t="str">
-        <f t="shared" ref="D26:D28" si="5">B26&amp;"_"&amp;C26</f>
+        <f t="shared" ref="D26:D29" si="5">B26&amp;"_"&amp;C26</f>
         <v>AttackArea_SlowAoe1</v>
       </c>
       <c r="E26" s="30" t="s">
@@ -2096,7 +2128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="28" t="s">
         <v>29</v>
@@ -2139,7 +2171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="28" t="s">
         <v>29</v>
@@ -2180,6 +2212,42 @@
       </c>
       <c r="S28" s="29" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="5"/>
+        <v>AttackArea_SeedHeal1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L29" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3F876A-A09E-47A0-9F57-534F705DA669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C495F607-0AD2-42CD-9243-337F1A078249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="313">
   <si>
     <t>##var</t>
   </si>
@@ -271,16 +271,10 @@
     <t>敌人单体</t>
   </si>
   <si>
-    <t>火焰灼烧buff1</t>
-  </si>
-  <si>
     <t>buff伤害</t>
   </si>
   <si>
     <t>中毒</t>
-  </si>
-  <si>
-    <t>群体减速</t>
   </si>
   <si>
     <t>奥术精灵1</t>
@@ -710,6 +704,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -833,9 +828,6 @@
     <t>AttackArea_EnemySolo1</t>
   </si>
   <si>
-    <t>AttackArea_Buff_HuoYan1</t>
-  </si>
-  <si>
     <t>AttackArea_Dot</t>
   </si>
   <si>
@@ -1046,13 +1038,47 @@
   </si>
   <si>
     <t>BuffAdd_Stun_Monster_Challenge5_5_4</t>
+  </si>
+  <si>
+    <t>BuffAdd_Line3_Fire</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Buff_Line3_Fire</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魔塔LV1群体减速</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魔塔LV2群体减速</t>
+  </si>
+  <si>
+    <t>冰魔塔LV3群体减速</t>
+  </si>
+  <si>
+    <t>火焰塔LV3灼烧buff</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_Attribute_Buff_Line3_Fire</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnHitChkIsCriticalStrikeCondition;eq;true</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Arrow_CritHit_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,6 +1132,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1127,7 +1160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1200,6 +1233,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1213,7 +1255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -1242,6 +1284,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1260,9 +1308,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1270,67 +1315,7 @@
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="好 3" xfId="3" xr:uid="{F37074F8-BB21-4752-9520-5363098F3E8A}"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1744,30 +1729,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P49" sqref="P49:P54"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="44.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43" customWidth="1"/>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
-    <col min="10" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="11" width="7.625" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="5.75" customWidth="1"/>
-    <col min="14" max="15" width="7.875" customWidth="1"/>
-    <col min="16" max="18" width="6.625" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" customWidth="1"/>
+    <col min="14" max="15" width="7.88671875" customWidth="1"/>
+    <col min="16" max="18" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1792,22 +1777,22 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="20" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="21"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="23"/>
       <c r="S1"/>
       <c r="T1"/>
       <c r="U1"/>
@@ -1816,7 +1801,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +1850,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1885,27 +1870,27 @@
         <v>19</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="23" t="s">
+      <c r="J3" s="26"/>
+      <c r="K3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="24"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="26"/>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -1914,7 +1899,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -1944,7 +1929,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
@@ -2005,12 +1990,12 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19" t="b">
@@ -2020,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>48</v>
@@ -2029,12 +2014,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19" t="b">
@@ -2044,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>48</v>
@@ -2053,12 +2038,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19" t="b">
@@ -2068,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>48</v>
@@ -2076,13 +2061,19 @@
       <c r="I8" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P8" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19" t="b">
@@ -2092,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>48</v>
@@ -2101,12 +2092,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19" t="b">
@@ -2116,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>48</v>
@@ -2125,12 +2116,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="b">
@@ -2140,159 +2131,165 @@
         <v>0</v>
       </c>
       <c r="G11" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+      <c r="H12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C13" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="E12" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="E14" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="E13" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+      <c r="E15" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="H15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="E14" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="E16" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="E15" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="E17" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="I17" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>209</v>
-      </c>
-      <c r="E16" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="E17" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>211</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="b">
@@ -2302,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>48</v>
@@ -2311,12 +2308,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19" t="b">
@@ -2326,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>48</v>
@@ -2335,12 +2332,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19" t="b">
@@ -2350,90 +2347,90 @@
         <v>0</v>
       </c>
       <c r="G20" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="H22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C23" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17" t="s">
+      <c r="E23" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="I23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E22" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="E23" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>175</v>
-      </c>
       <c r="C24" s="19" t="s">
-        <v>65</v>
+        <v>306</v>
       </c>
       <c r="D24" t="s">
         <v>60</v>
@@ -2445,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>48</v>
@@ -2462,16 +2459,16 @@
         <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
@@ -2483,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>48</v>
@@ -2500,16 +2497,16 @@
         <v>0</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>65</v>
+        <v>308</v>
       </c>
       <c r="D26" t="s">
         <v>60</v>
@@ -2521,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>48</v>
@@ -2538,283 +2535,280 @@
         <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="27" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" t="s">
+        <v>215</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" t="s">
+        <v>216</v>
+      </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D31" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" t="s">
+        <v>217</v>
+      </c>
+      <c r="I31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" t="s">
+        <v>218</v>
+      </c>
+      <c r="I32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" t="s">
+        <v>219</v>
+      </c>
+      <c r="I33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" t="s">
+        <v>221</v>
+      </c>
+      <c r="I35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" t="s">
+        <v>222</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" t="s">
+        <v>282</v>
+      </c>
+      <c r="I37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>187</v>
       </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" t="s">
-        <v>217</v>
-      </c>
-      <c r="I28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29" t="s">
-        <v>218</v>
-      </c>
-      <c r="I29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30" t="s">
-        <v>219</v>
-      </c>
-      <c r="I30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>182</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31" t="s">
-        <v>220</v>
-      </c>
-      <c r="I31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>183</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" t="s">
-        <v>221</v>
-      </c>
-      <c r="I32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>184</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>127</v>
-      </c>
-      <c r="H33" t="s">
-        <v>222</v>
-      </c>
-      <c r="I33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" t="s">
-        <v>223</v>
-      </c>
-      <c r="I34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>127</v>
-      </c>
-      <c r="H35" t="s">
-        <v>224</v>
-      </c>
-      <c r="I35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>188</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E36" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H36" t="s">
-        <v>285</v>
-      </c>
-      <c r="I36" t="s">
-        <v>45</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E37" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="13" t="s">
+      <c r="D38" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E38" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="H38" t="s">
         <v>52</v>
@@ -2825,16 +2819,16 @@
       <c r="O38">
         <v>0</v>
       </c>
-      <c r="P38" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+      <c r="P38" t="s">
         <v>190</v>
       </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>194</v>
+      </c>
       <c r="D39" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E39" s="19" t="b">
         <v>0</v>
@@ -2843,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H39" t="s">
         <v>52</v>
@@ -2854,17 +2848,17 @@
       <c r="O39">
         <v>0</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>195</v>
-      </c>
       <c r="E40" s="19" t="b">
         <v>0</v>
       </c>
@@ -2872,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H40" t="s">
         <v>52</v>
@@ -2884,205 +2878,205 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" t="s">
+        <v>45</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>125</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="I43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="I44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="26" t="s">
+      <c r="D46" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="I42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="26" t="s">
+      <c r="I46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>127</v>
-      </c>
-      <c r="H43" s="26" t="s">
+      <c r="D47" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="I43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="26" t="s">
+      <c r="I47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H44" s="26" t="s">
+      <c r="D48" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="I44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="26" t="s">
+      <c r="I48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>127</v>
-      </c>
-      <c r="H45" s="26" t="s">
+      <c r="D49" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="I45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B46" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>127</v>
-      </c>
-      <c r="H46" s="26" t="s">
+      <c r="I49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="I46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B47" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
-        <v>127</v>
-      </c>
-      <c r="H47" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="I47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B48" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E48" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>127</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="I48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B49" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="E49" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H49" t="s">
-        <v>52</v>
-      </c>
-      <c r="I49" t="s">
-        <v>45</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" s="26" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B50" s="26" t="s">
-        <v>294</v>
-      </c>
       <c r="D50" s="13" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E50" s="19" t="b">
         <v>0</v>
@@ -3091,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H50" t="s">
         <v>52</v>
@@ -3102,16 +3096,16 @@
       <c r="O50">
         <v>0</v>
       </c>
-      <c r="P50" s="26" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="26" t="s">
-        <v>295</v>
+      <c r="P50" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E51" s="19" t="b">
         <v>0</v>
@@ -3120,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H51" t="s">
         <v>52</v>
@@ -3131,17 +3125,17 @@
       <c r="O51">
         <v>0</v>
       </c>
-      <c r="P51" s="26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="26" t="s">
+      <c r="P51" s="20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>299</v>
-      </c>
       <c r="E52" s="19" t="b">
         <v>0</v>
       </c>
@@ -3149,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H52" t="s">
         <v>52</v>
@@ -3160,16 +3154,16 @@
       <c r="O52">
         <v>0</v>
       </c>
-      <c r="P52" s="26" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="26" t="s">
-        <v>297</v>
+      <c r="P52" s="20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E53" s="19" t="b">
         <v>0</v>
@@ -3178,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H53" t="s">
         <v>52</v>
@@ -3189,16 +3183,16 @@
       <c r="O53">
         <v>0</v>
       </c>
-      <c r="P53" s="26" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="26" t="s">
-        <v>298</v>
+      <c r="P53" s="20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E54" s="19" t="b">
         <v>0</v>
@@ -3207,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H54" t="s">
         <v>52</v>
@@ -3218,144 +3212,140 @@
       <c r="O54">
         <v>0</v>
       </c>
-      <c r="P54" s="26" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="26"/>
-    </row>
-    <row r="56" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="3" t="s">
+      <c r="P54" s="20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E55" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" t="s">
+        <v>45</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" s="20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="20"/>
+    </row>
+    <row r="57" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="17"/>
+      <c r="L58" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="17"/>
+      <c r="L60" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F56" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K56" s="3">
-        <v>0</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O56" s="3">
-        <v>0</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="17"/>
-      <c r="L57" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F58" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="17"/>
-      <c r="L59" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E60" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11" t="s">
@@ -3368,10 +3358,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>45</v>
@@ -3386,12 +3373,12 @@
         <v>0</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11" t="s">
@@ -3404,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>45</v>
@@ -3425,9 +3412,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11" t="s">
@@ -3440,10 +3427,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>45</v>
@@ -3461,247 +3448,257 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="18"/>
+      <c r="O67" s="4">
+        <v>0</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E64" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O64" s="3">
-        <v>0</v>
-      </c>
-      <c r="P64" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="4" t="s">
+      <c r="C68" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="18"/>
+      <c r="O69" s="4">
+        <v>0</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E65" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="18"/>
-      <c r="O66" s="4">
-        <v>0</v>
-      </c>
-      <c r="P66" s="4" t="s">
+      <c r="E70" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="18"/>
+      <c r="O71" s="4">
+        <v>0</v>
+      </c>
+      <c r="P71" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="4" t="s">
+    <row r="72" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E67" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="18"/>
-      <c r="O68" s="4">
-        <v>0</v>
-      </c>
-      <c r="P68" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="4" t="s">
+      <c r="C72" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E69" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="18"/>
-      <c r="O70" s="4">
-        <v>0</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="3" t="s">
+      <c r="C73" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C71" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F71" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G71" s="17" t="s">
+      <c r="C75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
         <v>124</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E72" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>124</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E73" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B75" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C75" t="s">
-        <v>66</v>
-      </c>
-      <c r="D75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E75" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>126</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>48</v>
@@ -3713,15 +3710,15 @@
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E76" s="3" t="b">
         <v>0</v>
@@ -3730,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>48</v>
@@ -3742,15 +3739,15 @@
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D77" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E77" s="3" t="b">
         <v>0</v>
@@ -3759,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>48</v>
@@ -3771,111 +3768,111 @@
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>124</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O78" s="2">
+        <v>0</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>124</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O79" s="2">
+        <v>0</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q79" s="2"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>124</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O80" s="2">
+        <v>0</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C78" t="s">
-        <v>70</v>
-      </c>
-      <c r="D78" t="s">
-        <v>71</v>
-      </c>
-      <c r="E78" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78" t="s">
-        <v>126</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O78" s="2">
-        <v>0</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q78" s="2"/>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B79" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C79" t="s">
-        <v>73</v>
-      </c>
-      <c r="D79" t="s">
-        <v>71</v>
-      </c>
-      <c r="E79" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G79" t="s">
-        <v>126</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O79" s="2">
-        <v>0</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q79" s="2"/>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B80" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>75</v>
-      </c>
-      <c r="D80" t="s">
-        <v>71</v>
-      </c>
-      <c r="E80" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" t="s">
-        <v>126</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O80" s="2">
-        <v>0</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q80" s="2"/>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B81" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C81" t="s">
-        <v>77</v>
       </c>
       <c r="D81" t="s">
         <v>47</v>
@@ -3887,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>48</v>
@@ -3899,12 +3896,12 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D82" t="s">
         <v>47</v>
@@ -3916,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>48</v>
@@ -3928,12 +3925,12 @@
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D83" t="s">
         <v>47</v>
@@ -3945,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>48</v>
@@ -3957,12 +3954,12 @@
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D84" t="s">
         <v>47</v>
@@ -3974,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>48</v>
@@ -3986,12 +3983,12 @@
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D85" t="s">
         <v>47</v>
@@ -4003,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>48</v>
@@ -4015,12 +4012,12 @@
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D86" t="s">
         <v>47</v>
@@ -4032,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>48</v>
@@ -4044,111 +4041,111 @@
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>124</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O87" s="2">
+        <v>0</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q87" s="2"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>124</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O88" s="2">
+        <v>0</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q88" s="2"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>124</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O89" s="2">
+        <v>0</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q89" s="2"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C87" t="s">
-        <v>83</v>
-      </c>
-      <c r="D87" t="s">
-        <v>71</v>
-      </c>
-      <c r="E87" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G87" t="s">
-        <v>126</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O87" s="2">
-        <v>0</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q87" s="2"/>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B88" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C88" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" t="s">
-        <v>71</v>
-      </c>
-      <c r="E88" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G88" t="s">
-        <v>126</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O88" s="2">
-        <v>0</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q88" s="2"/>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B89" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>87</v>
-      </c>
-      <c r="D89" t="s">
-        <v>71</v>
-      </c>
-      <c r="E89" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G89" t="s">
-        <v>126</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O89" s="2">
-        <v>0</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q89" s="2"/>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B90" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C90" t="s">
-        <v>89</v>
       </c>
       <c r="D90" t="s">
         <v>47</v>
@@ -4160,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>48</v>
@@ -4172,12 +4169,12 @@
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D91" t="s">
         <v>47</v>
@@ -4189,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>48</v>
@@ -4201,12 +4198,12 @@
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C92" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D92" t="s">
         <v>47</v>
@@ -4218,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>48</v>
@@ -4230,15 +4227,15 @@
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D93" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E93" s="3" t="b">
         <v>0</v>
@@ -4247,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>48</v>
@@ -4259,15 +4256,15 @@
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C94" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D94" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E94" s="3" t="b">
         <v>0</v>
@@ -4276,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>48</v>
@@ -4288,15 +4285,15 @@
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C95" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D95" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E95" s="3" t="b">
         <v>0</v>
@@ -4305,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>48</v>
@@ -4317,15 +4314,15 @@
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D96" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E96" s="3" t="b">
         <v>0</v>
@@ -4334,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>48</v>
@@ -4346,15 +4343,15 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C97" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D97" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E97" s="3" t="b">
         <v>0</v>
@@ -4363,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>48</v>
@@ -4375,15 +4372,15 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C98" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E98" s="3" t="b">
         <v>0</v>
@@ -4392,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>48</v>
@@ -4404,451 +4401,451 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C99" t="s">
+        <v>96</v>
+      </c>
+      <c r="D99" t="s">
+        <v>97</v>
+      </c>
+      <c r="E99" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>122</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O99" s="2">
+        <v>0</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q99" s="2"/>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C100" t="s">
+        <v>99</v>
+      </c>
+      <c r="D100" t="s">
+        <v>97</v>
+      </c>
+      <c r="E100" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>122</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O100" s="2">
+        <v>0</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="2"/>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C101" t="s">
+        <v>101</v>
+      </c>
+      <c r="D101" t="s">
+        <v>97</v>
+      </c>
+      <c r="E101" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>122</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O101" s="2">
+        <v>0</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q101" s="2"/>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C99" t="s">
-        <v>98</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="C102" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>124</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q102" s="3"/>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C103" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>124</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O103" s="3">
+        <v>0</v>
+      </c>
+      <c r="P103" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q103" s="3"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>124</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O104" s="3">
+        <v>0</v>
+      </c>
+      <c r="P104" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q104" s="3"/>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C105" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" t="s">
+        <v>110</v>
+      </c>
+      <c r="E105" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>122</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O105" s="3">
+        <v>0</v>
+      </c>
+      <c r="P105" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" t="s">
+        <v>110</v>
+      </c>
+      <c r="E106" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>122</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O106" s="3">
+        <v>0</v>
+      </c>
+      <c r="P106" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C107" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107" t="s">
+        <v>110</v>
+      </c>
+      <c r="E107" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>122</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O107" s="3">
+        <v>0</v>
+      </c>
+      <c r="P107" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C108" t="s">
+        <v>96</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>122</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C109" t="s">
         <v>99</v>
       </c>
-      <c r="E99" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F99" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G99" t="s">
-        <v>124</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O99" s="2">
-        <v>0</v>
-      </c>
-      <c r="P99" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q99" s="2"/>
-    </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B100" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="D109" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E109" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>122</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C110" t="s">
         <v>101</v>
       </c>
-      <c r="D100" t="s">
-        <v>99</v>
-      </c>
-      <c r="E100" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G100" t="s">
-        <v>124</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O100" s="2">
-        <v>0</v>
-      </c>
-      <c r="P100" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q100" s="2"/>
-    </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B101" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C101" t="s">
-        <v>103</v>
-      </c>
-      <c r="D101" t="s">
-        <v>99</v>
-      </c>
-      <c r="E101" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G101" t="s">
-        <v>124</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O101" s="2">
-        <v>0</v>
-      </c>
-      <c r="P101" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q101" s="2"/>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B102" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C102" t="s">
-        <v>105</v>
-      </c>
-      <c r="D102" t="s">
-        <v>71</v>
-      </c>
-      <c r="E102" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G102" t="s">
-        <v>126</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q102" s="3"/>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B103" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C103" t="s">
-        <v>107</v>
-      </c>
-      <c r="D103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E103" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F103" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G103" t="s">
-        <v>126</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O103" s="3">
-        <v>0</v>
-      </c>
-      <c r="P103" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q103" s="3"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B104" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C104" t="s">
-        <v>109</v>
-      </c>
-      <c r="D104" t="s">
-        <v>71</v>
-      </c>
-      <c r="E104" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F104" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G104" t="s">
-        <v>126</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O104" s="3">
-        <v>0</v>
-      </c>
-      <c r="P104" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q104" s="3"/>
-    </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B105" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C105" t="s">
-        <v>111</v>
-      </c>
-      <c r="D105" t="s">
-        <v>112</v>
-      </c>
-      <c r="E105" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F105" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G105" t="s">
-        <v>124</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O105" s="3">
-        <v>0</v>
-      </c>
-      <c r="P105" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B106" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C106" t="s">
-        <v>114</v>
-      </c>
-      <c r="D106" t="s">
-        <v>112</v>
-      </c>
-      <c r="E106" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F106" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G106" t="s">
-        <v>124</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O106" s="3">
-        <v>0</v>
-      </c>
-      <c r="P106" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B107" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C107" t="s">
-        <v>116</v>
-      </c>
-      <c r="D107" t="s">
-        <v>112</v>
-      </c>
-      <c r="E107" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F107" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G107" t="s">
-        <v>124</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O107" s="3">
-        <v>0</v>
-      </c>
-      <c r="P107" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B108" s="3" t="s">
+      <c r="D110" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E110" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>122</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C108" t="s">
-        <v>98</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E108" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F108" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G108" t="s">
-        <v>124</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B109" s="3" t="s">
+      <c r="C111" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E111" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>122</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C109" t="s">
-        <v>101</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E109" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F109" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G109" t="s">
-        <v>124</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B110" s="3" t="s">
+      <c r="C112" t="s">
+        <v>83</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E112" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>122</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C110" t="s">
-        <v>103</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E110" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F110" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G110" t="s">
-        <v>124</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B111" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C111" t="s">
-        <v>83</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E111" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F111" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G111" t="s">
-        <v>124</v>
-      </c>
-      <c r="H111" s="3" t="s">
+      <c r="C113" t="s">
+        <v>85</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E113" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>122</v>
+      </c>
+      <c r="H113" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B112" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C112" t="s">
-        <v>85</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E112" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F112" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G112" t="s">
-        <v>124</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B113" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C113" t="s">
-        <v>87</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E113" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F113" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G113" t="s">
-        <v>124</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>45</v>
@@ -4864,46 +4861,46 @@
     <mergeCell ref="O3:R3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B48 B55:B1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:H48">
-    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P49">
+  <conditionalFormatting sqref="B55">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:B1048576 B1:B26 B28:B49">
+    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:H49">
+    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P50">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P50">
+  <conditionalFormatting sqref="P51">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P51">
+  <conditionalFormatting sqref="P52">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P52">
+  <conditionalFormatting sqref="P53">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P53">
+  <conditionalFormatting sqref="P54">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P54">
+  <conditionalFormatting sqref="P55">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C495F607-0AD2-42CD-9243-337F1A078249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEB71FC-FED6-4CD8-8D87-C8938D925EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="326">
   <si>
     <t>##var</t>
   </si>
@@ -433,15 +433,6 @@
     <t>EffectCreate_HitTowerGoblin3</t>
   </si>
   <si>
-    <t>DamageUnit_BuffTowerScorpio1</t>
-  </si>
-  <si>
-    <t>DamageUnit_BuffTowerScorpio2</t>
-  </si>
-  <si>
-    <t>DamageUnit_BuffTowerScorpio3</t>
-  </si>
-  <si>
     <t>DamageUnit_BuffTowerFireBall1</t>
   </si>
   <si>
@@ -451,32 +442,6 @@
     <t>DamageUnit_BuffTowerFireBall3</t>
   </si>
   <si>
-    <t>SelectObjectConfig_AutoUnitOne</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Self</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Umbellate_5_All</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_UmbellateFriend_5_All</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Umbellate_1</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Umbellate_All</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Rectangle_All</t>
-  </si>
-  <si>
-    <t>string#ref=SelectObjectConfigCategory</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>BuffAdd_Slow2</t>
   </si>
   <si>
@@ -486,97 +451,33 @@
     <t>AttackArea_PlayerSolo1</t>
   </si>
   <si>
-    <t>SelectObjectConfig_AutoUnitOne_PlayerSolo1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackArea_PlayerSolo2</t>
   </si>
   <si>
-    <t>SelectObjectConfig_AutoUnitOne_PlayerSolo2</t>
-  </si>
-  <si>
     <t>AttackArea_PlayerSolo3</t>
   </si>
   <si>
-    <t>SelectObjectConfig_AutoUnitOne_PlayerSolo3</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Umbellate_PlayerAoe1_All</t>
-  </si>
-  <si>
     <t>AttackArea_PlayerAoe2</t>
   </si>
   <si>
-    <t>SelectObjectConfig_Umbellate_PlayerAoe2_All</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackArea_PlayerAoe3</t>
   </si>
   <si>
-    <t>SelectObjectConfig_Umbellate_PlayerAoe3_All</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackArea_Line1</t>
   </si>
   <si>
-    <t>SelectObjectConfig_Rectangle_1Line1_All</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackArea_Line2</t>
   </si>
   <si>
-    <t>SelectObjectConfig_Rectangle_1Line2_All</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackArea_Line3</t>
   </si>
   <si>
-    <t>SelectObjectConfig_Rectangle_1Line3_All</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Umbellate_Circle1_All</t>
-  </si>
-  <si>
     <t>AttackArea_Circle2</t>
   </si>
   <si>
-    <t>SelectObjectConfig_Umbellate_Circle2_All</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackArea_Circle3</t>
   </si>
   <si>
-    <t>SelectObjectConfig_Umbellate_Circle3_All</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObjectConfig_AutoUnitOne_TowerDragon1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObjectConfig_AutoUnitOne_TowerDragon2</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_AutoUnitOne_TowerDragon3</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_AutoUnitOne_Elec1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObjectConfig_AutoUnitOne_Elec2</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_AutoUnitOne_Elec3</t>
-  </si>
-  <si>
     <t>DamageUnit_AttributeDisAdd_PlayerCircle1</t>
   </si>
   <si>
@@ -596,7 +497,7 @@
   </si>
   <si>
     <t>AttackArea_Circle1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AttackArea_TowerDragon1</t>
@@ -654,7 +555,7 @@
   </si>
   <si>
     <t>无限模式怪物恢复技能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AttackArea_Infinite_17_2_Dan</t>
@@ -682,7 +583,7 @@
   </si>
   <si>
     <t>AttackArea_Infinite_19_1_Dan</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -710,11 +611,7 @@
       </rPr>
       <t>_1_Dan</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Umbellate_All_Stun</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>弩箭塔LV1伤害</t>
@@ -973,7 +870,7 @@
   </si>
   <si>
     <t>DamageUnit_Empty</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DamageUnit_Monster_Challenge3_1_1</t>
@@ -1019,7 +916,7 @@
   </si>
   <si>
     <t>BuffAdd_Stun_Infinite_17_2_Dan</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BuffAdd_Stun_Monster_Challenge5_1_1</t>
@@ -1041,15 +938,15 @@
   </si>
   <si>
     <t>BuffAdd_Line3_Fire</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AttackArea_Buff_Line3_Fire</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>冰魔塔LV1群体减速</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>冰魔塔LV2群体减速</t>
@@ -1059,31 +956,246 @@
   </si>
   <si>
     <t>火焰塔LV3灼烧buff</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DamageUnit_Attribute_Buff_Line3_Fire</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>OnHitChkIsCriticalStrikeCondition;eq;true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Arrow_CritHit_3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>EffectCreate_Arrow_CritHit_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>DamageUnit_HitterCurHpPercent_TowerScorpio1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_HitterCurHpPercent_TowerScorpio2</t>
+  </si>
+  <si>
+    <t>DamageUnit_HitterCurHpPercent_TowerScorpio3</t>
+  </si>
+  <si>
+    <r>
+      <t>AttackArea_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TowerBomb1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AttackArea_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TowerBomb2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AttackArea_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TowerBomb3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>炸弹1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹2</t>
+  </si>
+  <si>
+    <t>炸弹3</t>
+  </si>
+  <si>
+    <r>
+      <t>BuffAdd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TowerBomb3</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_TowerBombSelf</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自爆</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=SelectObjectCfgCategory</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_PlayerSolo1</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_PlayerSolo2</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_PlayerSolo3</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_PlayerAoe1_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_PlayerAoe2_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_PlayerAoe3_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Rectangle_1Line1_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Rectangle_1Line2_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Rectangle_1Line3_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_Circle1_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_Circle2_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_Circle3_All</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_TowerDragon1</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_TowerDragon2</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_TowerDragon3</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_Elec1</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_Elec2</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_Elec3</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_5_All</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne</t>
+  </si>
+  <si>
+    <t>SelectObject_UmbellateFriend_5_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_All_Stun</t>
+  </si>
+  <si>
+    <t>SelectObject_Rectangle_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_1</t>
+  </si>
+  <si>
+    <t>SelectObject_Self</t>
+  </si>
+  <si>
+    <t>SelectObject_Attack_TowerBomb1</t>
+  </si>
+  <si>
+    <t>SelectObject_Attack_TowerBomb2</t>
+  </si>
+  <si>
+    <t>SelectObject_Attack_TowerBomb3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1245,67 +1357,73 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1315,7 +1433,17 @@
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="好 3" xfId="3" xr:uid="{F37074F8-BB21-4752-9520-5363098F3E8A}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1727,11 +1855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y113"/>
+  <dimension ref="A1:Y117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1777,22 +1905,22 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="22" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="23"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="25"/>
       <c r="S1"/>
       <c r="T1"/>
       <c r="U1"/>
@@ -1870,27 +1998,27 @@
         <v>19</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="25" t="s">
+      <c r="J3" s="28"/>
+      <c r="K3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="25" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="26"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="28"/>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -1992,10 +2120,10 @@
     </row>
     <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19" t="b">
@@ -2005,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>48</v>
@@ -2016,10 +2144,10 @@
     </row>
     <row r="7" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19" t="b">
@@ -2029,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>135</v>
+        <v>298</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>48</v>
@@ -2040,10 +2168,10 @@
     </row>
     <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19" t="b">
@@ -2053,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>48</v>
@@ -2062,10 +2190,10 @@
         <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2073,7 +2201,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19" t="b">
@@ -2083,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>48</v>
@@ -2094,10 +2222,10 @@
     </row>
     <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19" t="b">
@@ -2107,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>140</v>
+        <v>301</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>48</v>
@@ -2118,10 +2246,10 @@
     </row>
     <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="b">
@@ -2131,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>142</v>
+        <v>302</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>48</v>
@@ -2142,10 +2270,10 @@
     </row>
     <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E12" s="19" t="b">
         <v>0</v>
@@ -2154,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>144</v>
+        <v>303</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>48</v>
@@ -2165,10 +2293,10 @@
     </row>
     <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E13" s="19" t="b">
         <v>0</v>
@@ -2177,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>48</v>
@@ -2188,10 +2316,10 @@
     </row>
     <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="E14" s="19" t="b">
         <v>0</v>
@@ -2200,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>148</v>
+        <v>305</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>48</v>
@@ -2212,15 +2340,15 @@
         <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="E15" s="19" t="b">
         <v>0</v>
@@ -2229,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>149</v>
+        <v>306</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>45</v>
@@ -2240,10 +2368,10 @@
     </row>
     <row r="16" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E16" s="19" t="b">
         <v>0</v>
@@ -2252,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>151</v>
+        <v>307</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>45</v>
@@ -2263,10 +2391,10 @@
     </row>
     <row r="17" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="E17" s="19" t="b">
         <v>0</v>
@@ -2275,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>153</v>
+        <v>308</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>45</v>
@@ -2286,10 +2414,10 @@
     </row>
     <row r="18" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="b">
@@ -2299,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>154</v>
+        <v>309</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>48</v>
@@ -2310,10 +2438,10 @@
     </row>
     <row r="19" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19" t="b">
@@ -2323,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>48</v>
@@ -2334,10 +2462,10 @@
     </row>
     <row r="20" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19" t="b">
@@ -2347,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>48</v>
@@ -2358,10 +2486,10 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="E21" s="19" t="b">
         <v>0</v>
@@ -2370,10 +2498,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>157</v>
+        <v>312</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>45</v>
@@ -2381,10 +2509,10 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="E22" s="19" t="b">
         <v>0</v>
@@ -2393,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>158</v>
+        <v>313</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>45</v>
@@ -2404,10 +2532,10 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="E23" s="19" t="b">
         <v>0</v>
@@ -2416,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>159</v>
+        <v>314</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>45</v>
@@ -2427,10 +2555,10 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="D24" t="s">
         <v>60</v>
@@ -2442,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>48</v>
@@ -2459,16 +2587,16 @@
         <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
@@ -2480,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>48</v>
@@ -2497,16 +2625,16 @@
         <v>0</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="D26" t="s">
         <v>60</v>
@@ -2518,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>48</v>
@@ -2535,16 +2663,16 @@
         <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>62</v>
@@ -2556,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>45</v>
@@ -2583,22 +2711,22 @@
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="D29" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>317</v>
+      </c>
+      <c r="H29" t="s">
         <v>185</v>
-      </c>
-      <c r="E29" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>125</v>
-      </c>
-      <c r="H29" t="s">
-        <v>215</v>
       </c>
       <c r="I29" t="s">
         <v>45</v>
@@ -2606,10 +2734,10 @@
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2618,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="H30" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="I30" t="s">
         <v>45</v>
@@ -2629,10 +2757,10 @@
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -2641,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="H31" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="I31" t="s">
         <v>45</v>
@@ -2652,10 +2780,10 @@
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -2664,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="H32" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="I32" t="s">
         <v>45</v>
@@ -2675,10 +2803,10 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -2687,10 +2815,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="H33" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="I33" t="s">
         <v>45</v>
@@ -2698,10 +2826,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -2710,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="H34" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="I34" t="s">
         <v>45</v>
@@ -2721,10 +2849,10 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -2733,10 +2861,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="H35" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="I35" t="s">
         <v>45</v>
@@ -2744,10 +2872,10 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -2756,10 +2884,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="H36" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="I36" t="s">
         <v>45</v>
@@ -2767,10 +2895,10 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="E37" s="19" t="b">
         <v>0</v>
@@ -2779,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="H37" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="I37" t="s">
         <v>45</v>
@@ -2791,15 +2919,15 @@
         <v>0</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="E38" s="19" t="b">
         <v>0</v>
@@ -2808,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="H38" t="s">
         <v>52</v>
@@ -2820,15 +2948,15 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="E39" s="19" t="b">
         <v>0</v>
@@ -2837,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="H39" t="s">
         <v>52</v>
@@ -2849,15 +2977,15 @@
         <v>0</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="E40" s="19" t="b">
         <v>0</v>
@@ -2866,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="H40" t="s">
         <v>52</v>
@@ -2878,15 +3006,15 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="E41" s="19" t="b">
         <v>0</v>
@@ -2895,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="H41" t="s">
         <v>52</v>
@@ -2907,15 +3035,15 @@
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="20" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -2924,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="I43" t="s">
         <v>45</v>
@@ -2935,10 +3063,10 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -2947,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="I44" t="s">
         <v>45</v>
@@ -2958,10 +3086,10 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -2970,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="I45" t="s">
         <v>45</v>
@@ -2981,10 +3109,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="20" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -2993,10 +3121,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="I46" t="s">
         <v>45</v>
@@ -3004,10 +3132,10 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -3016,10 +3144,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="I47" t="s">
         <v>45</v>
@@ -3027,10 +3155,10 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -3039,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="I48" t="s">
         <v>45</v>
@@ -3050,10 +3178,10 @@
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="20" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -3062,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="I49" t="s">
         <v>45</v>
@@ -3073,10 +3201,10 @@
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="E50" s="19" t="b">
         <v>0</v>
@@ -3085,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="H50" t="s">
         <v>52</v>
@@ -3097,15 +3225,15 @@
         <v>0</v>
       </c>
       <c r="P50" s="20" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="20" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="E51" s="19" t="b">
         <v>0</v>
@@ -3114,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="H51" t="s">
         <v>52</v>
@@ -3126,15 +3254,15 @@
         <v>0</v>
       </c>
       <c r="P51" s="20" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="E52" s="19" t="b">
         <v>0</v>
@@ -3143,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="H52" t="s">
         <v>52</v>
@@ -3155,15 +3283,15 @@
         <v>0</v>
       </c>
       <c r="P52" s="20" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="E53" s="19" t="b">
         <v>0</v>
@@ -3172,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="H53" t="s">
         <v>52</v>
@@ -3184,15 +3312,15 @@
         <v>0</v>
       </c>
       <c r="P53" s="20" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="E54" s="19" t="b">
         <v>0</v>
@@ -3201,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="H54" t="s">
         <v>52</v>
@@ -3213,15 +3341,15 @@
         <v>0</v>
       </c>
       <c r="P54" s="20" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="20" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="E55" s="19" t="b">
         <v>0</v>
@@ -3230,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="H55" t="s">
         <v>52</v>
@@ -3242,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="20" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
@@ -3250,7 +3378,7 @@
     </row>
     <row r="57" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11" t="s">
@@ -3263,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>128</v>
+        <v>319</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>39</v>
@@ -3299,7 +3427,7 @@
     </row>
     <row r="59" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11" t="s">
@@ -3312,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>39</v>
@@ -3345,7 +3473,7 @@
     </row>
     <row r="61" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11" t="s">
@@ -3358,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>45</v>
@@ -3378,7 +3506,7 @@
     </row>
     <row r="62" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11" t="s">
@@ -3391,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>48</v>
@@ -3414,7 +3542,7 @@
     </row>
     <row r="63" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11" t="s">
@@ -3427,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>39</v>
@@ -3450,7 +3578,7 @@
     </row>
     <row r="64" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11" t="s">
@@ -3463,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>48</v>
@@ -3486,7 +3614,7 @@
     </row>
     <row r="65" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>50</v>
@@ -3501,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>126</v>
+        <v>321</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>52</v>
@@ -3518,7 +3646,7 @@
     </row>
     <row r="66" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>54</v>
@@ -3533,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>56</v>
@@ -3557,7 +3685,7 @@
     </row>
     <row r="68" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>54</v>
@@ -3572,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>58</v>
@@ -3596,7 +3724,7 @@
     </row>
     <row r="70" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>54</v>
@@ -3611,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>59</v>
@@ -3635,7 +3763,7 @@
     </row>
     <row r="72" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>61</v>
@@ -3648,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>48</v>
@@ -3659,7 +3787,7 @@
     </row>
     <row r="73" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>63</v>
@@ -3671,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>123</v>
+        <v>322</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>48</v>
@@ -3683,7 +3811,7 @@
     <row r="74" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C75" t="s">
         <v>64</v>
@@ -3698,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>48</v>
@@ -3712,7 +3840,7 @@
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C76" t="s">
         <v>66</v>
@@ -3727,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>48</v>
@@ -3741,7 +3869,7 @@
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s">
         <v>67</v>
@@ -3756,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>48</v>
@@ -3770,7 +3898,7 @@
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -3785,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>48</v>
@@ -3803,7 +3931,7 @@
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="C79" t="s">
         <v>71</v>
@@ -3818,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>48</v>
@@ -3836,7 +3964,7 @@
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C80" t="s">
         <v>73</v>
@@ -3851,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>48</v>
@@ -3869,7 +3997,7 @@
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C81" t="s">
         <v>75</v>
@@ -3884,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>48</v>
@@ -3898,7 +4026,7 @@
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="C82" t="s">
         <v>76</v>
@@ -3913,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>48</v>
@@ -3927,7 +4055,7 @@
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="C83" t="s">
         <v>77</v>
@@ -3942,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>48</v>
@@ -3956,7 +4084,7 @@
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="C84" t="s">
         <v>78</v>
@@ -3971,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>48</v>
@@ -3985,7 +4113,7 @@
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="C85" t="s">
         <v>79</v>
@@ -4000,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>48</v>
@@ -4014,7 +4142,7 @@
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="C86" t="s">
         <v>80</v>
@@ -4029,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>48</v>
@@ -4043,7 +4171,7 @@
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="C87" t="s">
         <v>81</v>
@@ -4058,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>48</v>
@@ -4076,7 +4204,7 @@
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="C88" t="s">
         <v>83</v>
@@ -4091,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>48</v>
@@ -4109,7 +4237,7 @@
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C89" t="s">
         <v>85</v>
@@ -4124,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>48</v>
@@ -4142,7 +4270,7 @@
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="C90" t="s">
         <v>87</v>
@@ -4157,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>48</v>
@@ -4171,7 +4299,7 @@
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="C91" t="s">
         <v>88</v>
@@ -4186,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>48</v>
@@ -4200,7 +4328,7 @@
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="C92" t="s">
         <v>89</v>
@@ -4215,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>48</v>
@@ -4229,7 +4357,7 @@
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="C93" t="s">
         <v>90</v>
@@ -4244,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>48</v>
@@ -4258,7 +4386,7 @@
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="C94" t="s">
         <v>91</v>
@@ -4273,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>48</v>
@@ -4287,7 +4415,7 @@
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="C95" t="s">
         <v>92</v>
@@ -4302,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>48</v>
@@ -4316,7 +4444,7 @@
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="C96" t="s">
         <v>93</v>
@@ -4331,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>48</v>
@@ -4345,7 +4473,7 @@
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="C97" t="s">
         <v>94</v>
@@ -4360,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>48</v>
@@ -4374,7 +4502,7 @@
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="C98" t="s">
         <v>95</v>
@@ -4389,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>48</v>
@@ -4403,7 +4531,7 @@
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="C99" t="s">
         <v>96</v>
@@ -4418,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>48</v>
@@ -4436,7 +4564,7 @@
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="C100" t="s">
         <v>99</v>
@@ -4451,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>48</v>
@@ -4469,7 +4597,7 @@
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C101" t="s">
         <v>101</v>
@@ -4484,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>48</v>
@@ -4502,7 +4630,7 @@
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="C102" t="s">
         <v>103</v>
@@ -4517,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>48</v>
@@ -4535,7 +4663,7 @@
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C103" t="s">
         <v>105</v>
@@ -4550,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>48</v>
@@ -4568,7 +4696,7 @@
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="C104" t="s">
         <v>107</v>
@@ -4583,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>48</v>
@@ -4601,7 +4729,7 @@
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="C105" t="s">
         <v>109</v>
@@ -4616,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>48</v>
@@ -4633,7 +4761,7 @@
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="C106" t="s">
         <v>112</v>
@@ -4648,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>48</v>
@@ -4665,7 +4793,7 @@
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -4680,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>48</v>
@@ -4697,7 +4825,7 @@
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C108" t="s">
         <v>96</v>
@@ -4712,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>122</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>116</v>
+        <v>316</v>
+      </c>
+      <c r="H108" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>45</v>
@@ -4723,7 +4851,7 @@
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="C109" t="s">
         <v>99</v>
@@ -4738,10 +4866,10 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>122</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>117</v>
+        <v>316</v>
+      </c>
+      <c r="H109" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>45</v>
@@ -4749,7 +4877,7 @@
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="C110" t="s">
         <v>101</v>
@@ -4764,10 +4892,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>122</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>118</v>
+        <v>316</v>
+      </c>
+      <c r="H110" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>45</v>
@@ -4775,7 +4903,7 @@
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B111" s="3" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="C111" t="s">
         <v>81</v>
@@ -4790,10 +4918,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>45</v>
@@ -4801,7 +4929,7 @@
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="C112" t="s">
         <v>83</v>
@@ -4816,18 +4944,18 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="C113" t="s">
         <v>85</v>
@@ -4842,12 +4970,122 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I113" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B114" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D114" t="s">
+        <v>65</v>
+      </c>
+      <c r="E114" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>323</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B115" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E115" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>324</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B116" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D116" t="s">
+        <v>65</v>
+      </c>
+      <c r="E116" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>325</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B117" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E117" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I117" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4860,48 +5098,51 @@
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O3:R3"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56:B1048576 B1:B26 B28:B49">
-    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
+  <conditionalFormatting sqref="B56:B113 B1:B26 B28:B49 B118:B1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:H49">
-    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H108:H110">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P55">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEB71FC-FED6-4CD8-8D87-C8938D925EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD722023-F040-4EDD-98DC-203709F82E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="357">
   <si>
     <t>##var</t>
   </si>
@@ -668,9 +668,6 @@
     <t>雷电塔LV3伤害</t>
   </si>
   <si>
-    <t>DamageUnit_Infinite_9_2_ZhongZi</t>
-  </si>
-  <si>
     <t>DamageUnit_Infinite_10_2_ZhongZi</t>
   </si>
   <si>
@@ -1077,106 +1074,212 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>AttackArea_TowerBombSelf</t>
+    <t>string#ref=SelectObjectCfgCategory</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_PlayerSolo1</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_PlayerSolo2</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_PlayerSolo3</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_PlayerAoe1_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_PlayerAoe2_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_PlayerAoe3_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Rectangle_1Line1_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Rectangle_1Line2_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Rectangle_1Line3_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_Circle1_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_Circle2_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_Circle3_All</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_TowerDragon1</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_TowerDragon2</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_TowerDragon3</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_Elec1</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_Elec2</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_Elec3</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_5_All</t>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne</t>
+  </si>
+  <si>
+    <t>SelectObject_UmbellateFriend_5_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_All_Stun</t>
+  </si>
+  <si>
+    <t>SelectObject_Rectangle_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_1</t>
+  </si>
+  <si>
+    <t>SelectObject_Self</t>
+  </si>
+  <si>
+    <t>SelectObject_Attack_TowerBomb1</t>
+  </si>
+  <si>
+    <t>SelectObject_Attack_TowerBomb2</t>
+  </si>
+  <si>
+    <t>SelectObject_Attack_TowerBomb3</t>
+  </si>
+  <si>
+    <t>AttackArea_Monster_Heal</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>炸弹</t>
+    <t>怪物通用技能-治疗</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>自爆</t>
+    <t>DamageUnit_Infinite_9_2_ZhongZi</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>string#ref=SelectObjectCfgCategory</t>
-  </si>
-  <si>
-    <t>SelectObject_AutoUnitOne_PlayerSolo1</t>
-  </si>
-  <si>
-    <t>SelectObject_AutoUnitOne_PlayerSolo2</t>
-  </si>
-  <si>
-    <t>SelectObject_AutoUnitOne_PlayerSolo3</t>
-  </si>
-  <si>
-    <t>SelectObject_Umbellate_PlayerAoe1_All</t>
-  </si>
-  <si>
-    <t>SelectObject_Umbellate_PlayerAoe2_All</t>
-  </si>
-  <si>
-    <t>SelectObject_Umbellate_PlayerAoe3_All</t>
-  </si>
-  <si>
-    <t>SelectObject_Rectangle_1Line1_All</t>
-  </si>
-  <si>
-    <t>SelectObject_Rectangle_1Line2_All</t>
-  </si>
-  <si>
-    <t>SelectObject_Rectangle_1Line3_All</t>
-  </si>
-  <si>
-    <t>SelectObject_Umbellate_Circle1_All</t>
-  </si>
-  <si>
-    <t>SelectObject_Umbellate_Circle2_All</t>
-  </si>
-  <si>
-    <t>SelectObject_Umbellate_Circle3_All</t>
-  </si>
-  <si>
-    <t>SelectObject_AutoUnitOne_TowerDragon1</t>
-  </si>
-  <si>
-    <t>SelectObject_AutoUnitOne_TowerDragon2</t>
-  </si>
-  <si>
-    <t>SelectObject_AutoUnitOne_TowerDragon3</t>
-  </si>
-  <si>
-    <t>SelectObject_AutoUnitOne_Elec1</t>
-  </si>
-  <si>
-    <t>SelectObject_AutoUnitOne_Elec2</t>
-  </si>
-  <si>
-    <t>SelectObject_AutoUnitOne_Elec3</t>
-  </si>
-  <si>
-    <t>SelectObject_Umbellate_5_All</t>
-  </si>
-  <si>
-    <t>SelectObject_AutoUnitOne</t>
-  </si>
-  <si>
-    <t>SelectObject_UmbellateFriend_5_All</t>
-  </si>
-  <si>
-    <t>SelectObject_Umbellate_All_Stun</t>
-  </si>
-  <si>
-    <t>SelectObject_Rectangle_All</t>
-  </si>
-  <si>
-    <t>SelectObject_Umbellate_All</t>
-  </si>
-  <si>
-    <t>SelectObject_Umbellate_1</t>
-  </si>
-  <si>
-    <t>SelectObject_Self</t>
-  </si>
-  <si>
-    <t>SelectObject_Attack_TowerBomb1</t>
-  </si>
-  <si>
-    <t>SelectObject_Attack_TowerBomb2</t>
-  </si>
-  <si>
-    <t>SelectObject_Attack_TowerBomb3</t>
+    <t>DamageUnit_Monster_Heal</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Monster_Weaken</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-弱化</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Monster_Weaken_Buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_Attribute</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_TowerRocket1</t>
+  </si>
+  <si>
+    <t>DamageUnit_TowerRocket2</t>
+  </si>
+  <si>
+    <t>DamageUnit_TowerRocket3</t>
+  </si>
+  <si>
+    <t>AttackArea_TowerFire1</t>
+  </si>
+  <si>
+    <t>AttackArea_TowerFire2</t>
+  </si>
+  <si>
+    <t>AttackArea_TowerFire3</t>
+  </si>
+  <si>
+    <t>穿透</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶塔LV1单体</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶塔LV2单体</t>
+  </si>
+  <si>
+    <t>水晶塔LV3单体</t>
+  </si>
+  <si>
+    <t>魔像1</t>
+  </si>
+  <si>
+    <t>魔像2</t>
+  </si>
+  <si>
+    <t>魔像3</t>
+  </si>
+  <si>
+    <t>扇形攻击</t>
+  </si>
+  <si>
+    <t>AttackArea_TowerGolem1</t>
+  </si>
+  <si>
+    <t>SelectObject_Attack_TowerGolem1</t>
+  </si>
+  <si>
+    <t>AttackArea_TowerGolem2</t>
+  </si>
+  <si>
+    <t>SelectObject_Attack_TowerGolem2</t>
+  </si>
+  <si>
+    <t>AttackArea_TowerGolem3</t>
+  </si>
+  <si>
+    <t>SelectObject_Attack_TowerGolem3</t>
+  </si>
+  <si>
+    <t>BuffAdd_TowerGolem3</t>
+  </si>
+  <si>
+    <t>BuffAdd_TowerGolem1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_TowerGolem2</t>
+  </si>
+  <si>
+    <t>DamageUnit_Attribute_TowerGolem1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_Attribute_TowerGolem2</t>
+  </si>
+  <si>
+    <t>DamageUnit_Attribute_TowerGolem3</t>
+  </si>
+  <si>
+    <t>BuffAdd_TowerGolem3_Stum</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1433,7 +1536,17 @@
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="好 3" xfId="3" xr:uid="{F37074F8-BB21-4752-9520-5363098F3E8A}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1855,32 +1968,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y117"/>
+  <dimension ref="A1:Y130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
+      <pane ySplit="5" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O130" sqref="O130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="44.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" customWidth="1"/>
-    <col min="14" max="15" width="7.88671875" customWidth="1"/>
-    <col min="16" max="18" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="7.625" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="5.75" customWidth="1"/>
+    <col min="14" max="15" width="7.875" customWidth="1"/>
+    <col min="16" max="18" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +2042,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +2091,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1998,7 +2111,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>20</v>
@@ -2027,7 +2140,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -2057,7 +2170,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
@@ -2118,7 +2231,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>121</v>
       </c>
@@ -2133,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>48</v>
@@ -2142,7 +2255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>122</v>
       </c>
@@ -2157,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>48</v>
@@ -2166,7 +2279,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>123</v>
       </c>
@@ -2181,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>48</v>
@@ -2190,13 +2303,13 @@
         <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>53</v>
       </c>
@@ -2211,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>48</v>
@@ -2220,7 +2333,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>124</v>
       </c>
@@ -2235,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>48</v>
@@ -2244,7 +2357,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>125</v>
       </c>
@@ -2259,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>48</v>
@@ -2268,7 +2381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>126</v>
       </c>
@@ -2282,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>48</v>
@@ -2291,7 +2404,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>127</v>
       </c>
@@ -2305,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>48</v>
@@ -2314,7 +2427,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>128</v>
       </c>
@@ -2328,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>48</v>
@@ -2340,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>137</v>
       </c>
@@ -2357,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>131</v>
@@ -2366,7 +2479,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>129</v>
       </c>
@@ -2380,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>132</v>
@@ -2389,7 +2502,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>130</v>
       </c>
@@ -2403,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>133</v>
@@ -2412,7 +2525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>138</v>
       </c>
@@ -2427,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>48</v>
@@ -2436,7 +2549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>139</v>
       </c>
@@ -2451,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>48</v>
@@ -2460,7 +2573,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>140</v>
       </c>
@@ -2475,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>48</v>
@@ -2484,7 +2597,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>141</v>
       </c>
@@ -2498,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>134</v>
@@ -2507,7 +2620,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>142</v>
       </c>
@@ -2521,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>135</v>
@@ -2530,7 +2643,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>143</v>
       </c>
@@ -2544,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>136</v>
@@ -2553,12 +2666,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>144</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D24" t="s">
         <v>60</v>
@@ -2570,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>48</v>
@@ -2591,12 +2704,12 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>146</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
@@ -2608,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>48</v>
@@ -2629,12 +2742,12 @@
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>147</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D26" t="s">
         <v>60</v>
@@ -2646,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>48</v>
@@ -2667,12 +2780,12 @@
       </c>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>62</v>
@@ -2684,172 +2797,111 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="28" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>313</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E30" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" s="22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>148</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>317</v>
-      </c>
-      <c r="H29" t="s">
-        <v>185</v>
-      </c>
-      <c r="I29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>317</v>
-      </c>
-      <c r="H30" t="s">
-        <v>186</v>
-      </c>
-      <c r="I30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>317</v>
-      </c>
-      <c r="H31" t="s">
-        <v>187</v>
-      </c>
-      <c r="I31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>317</v>
-      </c>
-      <c r="H32" t="s">
-        <v>188</v>
-      </c>
-      <c r="I32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>317</v>
-      </c>
-      <c r="H33" t="s">
-        <v>189</v>
-      </c>
-      <c r="I33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>317</v>
-      </c>
-      <c r="H34" t="s">
-        <v>190</v>
-      </c>
-      <c r="I34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>154</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>156</v>
@@ -2861,18 +2913,18 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>317</v>
-      </c>
-      <c r="H35" t="s">
-        <v>191</v>
+        <v>313</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>324</v>
       </c>
       <c r="I35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>156</v>
@@ -2884,669 +2936,643 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H36" t="s">
+        <v>185</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>313</v>
+      </c>
+      <c r="H37" t="s">
+        <v>186</v>
+      </c>
+      <c r="I37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>313</v>
+      </c>
+      <c r="H38" t="s">
+        <v>187</v>
+      </c>
+      <c r="I38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>313</v>
+      </c>
+      <c r="H39" t="s">
+        <v>188</v>
+      </c>
+      <c r="I39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>313</v>
+      </c>
+      <c r="H40" t="s">
+        <v>189</v>
+      </c>
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>313</v>
+      </c>
+      <c r="H41" t="s">
+        <v>190</v>
+      </c>
+      <c r="I41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>313</v>
+      </c>
+      <c r="H42" t="s">
+        <v>191</v>
+      </c>
+      <c r="I42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H43" t="s">
+        <v>251</v>
+      </c>
+      <c r="I43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H44" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" t="s">
+        <v>45</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B45" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H45" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" t="s">
+        <v>45</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" t="s">
+        <v>45</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" t="s">
+        <v>45</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B49" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>313</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="I49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B50" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>313</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="I50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B51" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>313</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="I51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B52" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>313</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="I52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B53" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>313</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="I53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B54" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>313</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="I54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B55" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>313</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="I55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B56" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E56" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H56" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56" t="s">
+        <v>45</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B57" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E57" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H57" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57" t="s">
+        <v>45</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B58" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E58" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58" t="s">
+        <v>45</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" s="20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B59" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H59" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" t="s">
+        <v>45</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B60" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E60" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H60" t="s">
+        <v>52</v>
+      </c>
+      <c r="I60" t="s">
+        <v>45</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B61" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E61" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I61" t="s">
+        <v>45</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B62" s="20"/>
+    </row>
+    <row r="63" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="I36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H37" t="s">
-        <v>252</v>
-      </c>
-      <c r="I37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" t="s">
-        <v>45</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" t="s">
-        <v>45</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" t="s">
-        <v>45</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" t="s">
-        <v>45</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>317</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="I43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>317</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="I44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>317</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="I45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>317</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="I46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
-        <v>317</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="I47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E48" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>317</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="I48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E49" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>317</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="I49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E50" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I50" t="s">
-        <v>45</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E51" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H51" t="s">
-        <v>52</v>
-      </c>
-      <c r="I51" t="s">
-        <v>45</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" s="20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E52" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H52" t="s">
-        <v>52</v>
-      </c>
-      <c r="I52" t="s">
-        <v>45</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" s="20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E53" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H53" t="s">
-        <v>52</v>
-      </c>
-      <c r="I53" t="s">
-        <v>45</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" s="20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E54" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H54" t="s">
-        <v>52</v>
-      </c>
-      <c r="I54" t="s">
-        <v>45</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" s="20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E55" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H55" t="s">
-        <v>52</v>
-      </c>
-      <c r="I55" t="s">
-        <v>45</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" s="20" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="20"/>
-    </row>
-    <row r="57" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F57" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="17"/>
-      <c r="L58" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="17"/>
-      <c r="L60" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E62" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G62" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E63" s="11" t="b">
         <v>1</v>
@@ -3555,13 +3581,16 @@
         <v>0</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="K63" s="3">
         <v>0</v>
@@ -3573,347 +3602,371 @@
         <v>0</v>
       </c>
       <c r="P63" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="17"/>
+      <c r="L64" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="17"/>
+      <c r="L66" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O67" s="3">
+        <v>0</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
+    <row r="69" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E64" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F64" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O64" s="3">
-        <v>0</v>
-      </c>
-      <c r="P64" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
+      <c r="C71" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O65" s="3">
-        <v>0</v>
-      </c>
-      <c r="P65" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
+      <c r="C72" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="18"/>
+      <c r="O73" s="4">
+        <v>0</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D74" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="18"/>
-      <c r="O67" s="4">
-        <v>0</v>
-      </c>
-      <c r="P67" s="4" t="s">
+      <c r="E74" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="18"/>
+      <c r="O75" s="4">
+        <v>0</v>
+      </c>
+      <c r="P75" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
+    <row r="76" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E68" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="18"/>
-      <c r="O69" s="4">
-        <v>0</v>
-      </c>
-      <c r="P69" s="4" t="s">
+      <c r="E76" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="18"/>
+      <c r="O77" s="4">
+        <v>0</v>
+      </c>
+      <c r="P77" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
+    <row r="78" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E70" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="18"/>
-      <c r="O71" s="4">
-        <v>0</v>
-      </c>
-      <c r="P71" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C72" s="11" t="s">
+      <c r="C78" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F72" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E73" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C75" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" t="s">
-        <v>65</v>
-      </c>
-      <c r="E75" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>315</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C76" t="s">
-        <v>66</v>
-      </c>
-      <c r="D76" t="s">
-        <v>65</v>
-      </c>
-      <c r="E76" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G76" t="s">
-        <v>315</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B77" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D77" t="s">
-        <v>65</v>
-      </c>
-      <c r="E77" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G77" t="s">
-        <v>315</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C78" t="s">
-        <v>68</v>
-      </c>
-      <c r="D78" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78" t="s">
-        <v>315</v>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>312</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>48</v>
@@ -3921,23 +3974,13 @@
       <c r="I78" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O78" s="2">
-        <v>0</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q78" s="2"/>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D79" t="s">
-        <v>69</v>
+        <v>203</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E79" s="3" t="b">
         <v>0</v>
@@ -3945,8 +3988,8 @@
       <c r="F79" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G79" t="s">
-        <v>315</v>
+      <c r="G79" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>48</v>
@@ -3954,56 +3997,17 @@
       <c r="I79" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O79" s="2">
-        <v>0</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q79" s="2"/>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B80" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C80" t="s">
-        <v>73</v>
-      </c>
-      <c r="D80" t="s">
-        <v>69</v>
-      </c>
-      <c r="E80" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" t="s">
-        <v>315</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O80" s="2">
-        <v>0</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q80" s="2"/>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C81" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D81" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E81" s="3" t="b">
         <v>0</v>
@@ -4012,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>48</v>
@@ -4024,15 +4028,15 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C82" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E82" s="3" t="b">
         <v>0</v>
@@ -4041,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>48</v>
@@ -4053,15 +4057,15 @@
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C83" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E83" s="3" t="b">
         <v>0</v>
@@ -4070,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>48</v>
@@ -4082,15 +4086,15 @@
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C84" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D84" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E84" s="3" t="b">
         <v>0</v>
@@ -4099,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>48</v>
@@ -4107,19 +4111,23 @@
       <c r="I84" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
+      <c r="O84" s="2">
+        <v>0</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="Q84" s="2"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C85" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D85" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E85" s="3" t="b">
         <v>0</v>
@@ -4128,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>48</v>
@@ -4136,19 +4144,23 @@
       <c r="I85" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
+      <c r="O85" s="2">
+        <v>0</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="Q85" s="2"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D86" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E86" s="3" t="b">
         <v>0</v>
@@ -4157,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>48</v>
@@ -4165,19 +4177,23 @@
       <c r="I86" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
+      <c r="O86" s="2">
+        <v>0</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="Q86" s="2"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C87" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E87" s="3" t="b">
         <v>0</v>
@@ -4186,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>48</v>
@@ -4194,23 +4210,19 @@
       <c r="I87" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O87" s="2">
-        <v>0</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C88" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D88" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E88" s="3" t="b">
         <v>0</v>
@@ -4219,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>48</v>
@@ -4227,23 +4239,19 @@
       <c r="I88" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O88" s="2">
-        <v>0</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E89" s="3" t="b">
         <v>0</v>
@@ -4252,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>48</v>
@@ -4260,20 +4268,16 @@
       <c r="I89" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O89" s="2">
-        <v>0</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C90" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D90" t="s">
         <v>47</v>
@@ -4285,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>48</v>
@@ -4297,12 +4301,12 @@
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C91" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D91" t="s">
         <v>47</v>
@@ -4314,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>48</v>
@@ -4326,12 +4330,12 @@
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C92" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D92" t="s">
         <v>47</v>
@@ -4343,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>48</v>
@@ -4355,15 +4359,15 @@
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C93" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D93" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E93" s="3" t="b">
         <v>0</v>
@@ -4372,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>48</v>
@@ -4380,19 +4384,23 @@
       <c r="I93" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
+      <c r="O93" s="2">
+        <v>0</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C94" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D94" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E94" s="3" t="b">
         <v>0</v>
@@ -4401,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>48</v>
@@ -4409,19 +4417,23 @@
       <c r="I94" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
+      <c r="O94" s="2">
+        <v>0</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C95" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D95" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E95" s="3" t="b">
         <v>0</v>
@@ -4430,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>48</v>
@@ -4438,19 +4450,23 @@
       <c r="I95" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
+      <c r="O95" s="2">
+        <v>0</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C96" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D96" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E96" s="3" t="b">
         <v>0</v>
@@ -4459,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>48</v>
@@ -4471,15 +4487,15 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C97" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D97" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E97" s="3" t="b">
         <v>0</v>
@@ -4488,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>48</v>
@@ -4500,15 +4516,15 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C98" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D98" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E98" s="3" t="b">
         <v>0</v>
@@ -4517,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>48</v>
@@ -4529,15 +4545,15 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C99" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D99" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E99" s="3" t="b">
         <v>0</v>
@@ -4546,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>48</v>
@@ -4554,23 +4570,19 @@
       <c r="I99" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O99" s="2">
-        <v>0</v>
-      </c>
-      <c r="P99" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C100" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D100" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E100" s="3" t="b">
         <v>0</v>
@@ -4579,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>48</v>
@@ -4587,156 +4599,136 @@
       <c r="I100" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O100" s="2">
-        <v>0</v>
-      </c>
-      <c r="P100" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C101" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D101" t="s">
+        <v>65</v>
+      </c>
+      <c r="E101" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>312</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B102" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" t="s">
+        <v>93</v>
+      </c>
+      <c r="D102" t="s">
+        <v>65</v>
+      </c>
+      <c r="E102" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>311</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B103" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" t="s">
+        <v>94</v>
+      </c>
+      <c r="D103" t="s">
+        <v>65</v>
+      </c>
+      <c r="E103" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>311</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B104" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C104" t="s">
+        <v>95</v>
+      </c>
+      <c r="D104" t="s">
+        <v>65</v>
+      </c>
+      <c r="E104" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>311</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C105" t="s">
+        <v>96</v>
+      </c>
+      <c r="D105" t="s">
         <v>97</v>
       </c>
-      <c r="E101" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G101" t="s">
-        <v>316</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O101" s="2">
-        <v>0</v>
-      </c>
-      <c r="P101" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q101" s="2"/>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B102" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C102" t="s">
-        <v>103</v>
-      </c>
-      <c r="D102" t="s">
-        <v>69</v>
-      </c>
-      <c r="E102" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G102" t="s">
-        <v>315</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q102" s="3"/>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B103" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C103" t="s">
-        <v>105</v>
-      </c>
-      <c r="D103" t="s">
-        <v>69</v>
-      </c>
-      <c r="E103" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F103" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G103" t="s">
-        <v>315</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O103" s="3">
-        <v>0</v>
-      </c>
-      <c r="P103" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q103" s="3"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B104" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C104" t="s">
-        <v>107</v>
-      </c>
-      <c r="D104" t="s">
-        <v>69</v>
-      </c>
-      <c r="E104" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F104" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G104" t="s">
-        <v>315</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O104" s="3">
-        <v>0</v>
-      </c>
-      <c r="P104" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q104" s="3"/>
-    </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B105" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C105" t="s">
-        <v>109</v>
-      </c>
-      <c r="D105" t="s">
-        <v>110</v>
-      </c>
       <c r="E105" s="3" t="b">
         <v>0</v>
       </c>
@@ -4744,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>48</v>
@@ -4752,22 +4744,23 @@
       <c r="I105" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O105" s="3">
-        <v>0</v>
-      </c>
-      <c r="P105" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O105" s="2">
+        <v>0</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q105" s="2"/>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C106" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D106" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E106" s="3" t="b">
         <v>0</v>
@@ -4776,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>48</v>
@@ -4784,22 +4777,23 @@
       <c r="I106" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O106" s="3">
-        <v>0</v>
-      </c>
-      <c r="P106" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O106" s="2">
+        <v>0</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q106" s="2"/>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C107" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D107" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E107" s="3" t="b">
         <v>0</v>
@@ -4808,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>48</v>
@@ -4816,277 +4810,659 @@
       <c r="I107" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O107" s="3">
-        <v>0</v>
-      </c>
-      <c r="P107" s="3" t="s">
+      <c r="O107" s="2">
+        <v>0</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q107" s="2"/>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B108" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" t="s">
+        <v>103</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>311</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O108" s="3">
+        <v>0</v>
+      </c>
+      <c r="P108" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q108" s="3"/>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B109" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" t="s">
+        <v>105</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>311</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O109" s="3">
+        <v>0</v>
+      </c>
+      <c r="P109" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q109" s="3"/>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B110" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" t="s">
+        <v>107</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>311</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O110" s="3">
+        <v>0</v>
+      </c>
+      <c r="P110" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q110" s="3"/>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B111" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C111" t="s">
+        <v>109</v>
+      </c>
+      <c r="D111" t="s">
+        <v>110</v>
+      </c>
+      <c r="E111" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>312</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O111" s="3">
+        <v>0</v>
+      </c>
+      <c r="P111" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B112" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" t="s">
+        <v>112</v>
+      </c>
+      <c r="D112" t="s">
+        <v>110</v>
+      </c>
+      <c r="E112" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>312</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O112" s="3">
+        <v>0</v>
+      </c>
+      <c r="P112" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B113" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C113" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" t="s">
+        <v>110</v>
+      </c>
+      <c r="E113" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>312</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O113" s="3">
+        <v>0</v>
+      </c>
+      <c r="P113" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B108" s="3" t="s">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B114" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C114" t="s">
+        <v>96</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E114" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>312</v>
+      </c>
+      <c r="H114" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B115" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C108" t="s">
-        <v>96</v>
-      </c>
-      <c r="D108" s="13" t="s">
+      <c r="C115" t="s">
+        <v>99</v>
+      </c>
+      <c r="D115" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E108" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F108" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G108" t="s">
-        <v>316</v>
-      </c>
-      <c r="H108" s="22" t="s">
+      <c r="E115" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>312</v>
+      </c>
+      <c r="H115" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="I108" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B109" s="3" t="s">
+      <c r="I115" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B116" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C109" t="s">
-        <v>99</v>
-      </c>
-      <c r="D109" s="13" t="s">
+      <c r="C116" t="s">
+        <v>101</v>
+      </c>
+      <c r="D116" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E109" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F109" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G109" t="s">
-        <v>316</v>
-      </c>
-      <c r="H109" s="22" t="s">
+      <c r="E116" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>312</v>
+      </c>
+      <c r="H116" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="I109" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B110" s="3" t="s">
+      <c r="I116" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B117" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C110" t="s">
-        <v>101</v>
-      </c>
-      <c r="D110" s="13" t="s">
+      <c r="C117" t="s">
+        <v>81</v>
+      </c>
+      <c r="D117" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E110" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F110" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G110" t="s">
-        <v>316</v>
-      </c>
-      <c r="H110" s="22" t="s">
+      <c r="E117" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>312</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B118" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C118" t="s">
+        <v>83</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E118" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>312</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B119" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C119" t="s">
+        <v>85</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>312</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B120" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="I110" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B111" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C111" t="s">
-        <v>81</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E111" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F111" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G111" t="s">
-        <v>316</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B112" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C112" t="s">
-        <v>83</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E112" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F112" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G112" t="s">
-        <v>316</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B113" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C113" t="s">
-        <v>85</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E113" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F113" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G113" t="s">
-        <v>316</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B114" s="23" t="s">
+      <c r="C120" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D120" t="s">
+        <v>65</v>
+      </c>
+      <c r="E120" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>319</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B121" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="C121" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D121" t="s">
         <v>65</v>
       </c>
-      <c r="E114" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F114" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G114" t="s">
-        <v>323</v>
-      </c>
-      <c r="H114" s="3" t="s">
+      <c r="E121" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>320</v>
+      </c>
+      <c r="H121" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I114" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B115" s="23" t="s">
+      <c r="I121" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B122" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="C122" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D122" t="s">
         <v>65</v>
       </c>
-      <c r="E115" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F115" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G115" t="s">
-        <v>324</v>
-      </c>
-      <c r="H115" s="3" t="s">
+      <c r="E122" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>321</v>
+      </c>
+      <c r="H122" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I115" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B116" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="C116" s="13" t="s">
+      <c r="I122" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="D116" t="s">
-        <v>65</v>
-      </c>
-      <c r="E116" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F116" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G116" t="s">
-        <v>325</v>
-      </c>
-      <c r="H116" s="3" t="s">
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>333</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E124" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>312</v>
+      </c>
+      <c r="H124" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I116" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O116">
-        <v>0</v>
-      </c>
-      <c r="P116" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B117" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E117" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F117" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H117" s="3" t="s">
+      <c r="I124" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>334</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E125" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>312</v>
+      </c>
+      <c r="H125" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I117" s="3" t="s">
-        <v>45</v>
+      <c r="I125" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>335</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E126" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>312</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B127" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D127" t="s">
+        <v>343</v>
+      </c>
+      <c r="E127" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>345</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B128" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D128" t="s">
+        <v>343</v>
+      </c>
+      <c r="E128" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F128" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>347</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B129" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D129" t="s">
+        <v>343</v>
+      </c>
+      <c r="E129" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
+        <v>349</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B130" s="23"/>
+      <c r="C130" s="13"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="O130">
+        <v>0.5</v>
+      </c>
+      <c r="P130" s="13" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -5099,50 +5475,53 @@
     <mergeCell ref="O3:R3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="B50">
+  <conditionalFormatting sqref="B56">
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
+  <conditionalFormatting sqref="B58">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
+  <conditionalFormatting sqref="B59">
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
+  <conditionalFormatting sqref="B60">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
+  <conditionalFormatting sqref="B61">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  <conditionalFormatting sqref="B124:B126 B62:B119 B1:B26 B34:B55 B131:B1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56:B113 B1:B26 B28:B49 B118:B1048576">
+  <conditionalFormatting sqref="H49:H55">
     <cfRule type="duplicateValues" dxfId="8" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:H49">
-    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
+  <conditionalFormatting sqref="H102:H104">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H108:H110">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  <conditionalFormatting sqref="H114:H116">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P50">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+  <conditionalFormatting sqref="P56">
+    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P51">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+  <conditionalFormatting sqref="P57">
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P52">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+  <conditionalFormatting sqref="P58">
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P53">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  <conditionalFormatting sqref="P59">
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P54">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  <conditionalFormatting sqref="P60">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P55">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="P61">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD722023-F040-4EDD-98DC-203709F82E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6160FED1-C8EC-452F-AB3D-3FA32C575EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="380">
   <si>
     <t>##var</t>
   </si>
@@ -1280,6 +1280,203 @@
   <si>
     <t>BuffAdd_TowerGolem3_Stum</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SelectObject_Attack_Tower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rocket1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SelectObject_Attack_Tower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rocket2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SelectObject_Attack_Tower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rocket3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_TowerIce1_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_TowerIce2_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_TowerIce3_All</t>
+  </si>
+  <si>
+    <t>AttackArea_Monster_ZhongZi1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Monster_ZhongZi2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Monster_ZhongZi3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Monster_Dan2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Monster_Dan3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-种子1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-种子2</t>
+  </si>
+  <si>
+    <t>怪物技能-种子3</t>
+  </si>
+  <si>
+    <t>怪物技能-蛋2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-蛋3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SelectObject_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monster_ZhongZi1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SelectObject_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monster_ZhongZi2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SelectObject_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monster_ZhongZi3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Dan2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Dan3</t>
+  </si>
+  <si>
+    <t>BuffAdd_Line1_Fire</t>
+  </si>
+  <si>
+    <t>BuffAdd_Line2_Fire</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -1510,6 +1707,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1968,11 +2168,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y130"/>
+  <dimension ref="A1:Y133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O130" sqref="O130"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P12:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2018,22 +2218,22 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="24" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="24" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="25"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="26"/>
       <c r="S1"/>
       <c r="T1"/>
       <c r="U1"/>
@@ -2116,22 +2316,22 @@
       <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="27" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="27" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="28"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="29"/>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -2403,6 +2603,9 @@
       <c r="I12" s="17" t="s">
         <v>45</v>
       </c>
+      <c r="P12" s="3" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
@@ -2426,6 +2629,9 @@
       <c r="I13" s="17" t="s">
         <v>45</v>
       </c>
+      <c r="P13" s="3" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
@@ -2682,8 +2888,8 @@
       <c r="F24" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>311</v>
+      <c r="G24" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>48</v>
@@ -2720,8 +2926,8 @@
       <c r="F25" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>311</v>
+      <c r="G25" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>48</v>
@@ -2758,8 +2964,8 @@
       <c r="F26" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="17" t="s">
-        <v>311</v>
+      <c r="G26" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>48</v>
@@ -2874,103 +3080,161 @@
       <c r="G31"/>
     </row>
     <row r="32" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="G32"/>
+      <c r="B32" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="I32" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="G33"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>313</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>324</v>
+      <c r="B33" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="I33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="E35" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H35" t="s">
+        <v>52</v>
       </c>
       <c r="I35" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>313</v>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" s="22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="E36" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="H36" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s">
         <v>45</v>
       </c>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" s="22" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>313</v>
-      </c>
-      <c r="H37" t="s">
-        <v>186</v>
-      </c>
-      <c r="I37" t="s">
-        <v>45</v>
-      </c>
+      <c r="C37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>156</v>
@@ -2984,8 +3248,8 @@
       <c r="G38" t="s">
         <v>313</v>
       </c>
-      <c r="H38" t="s">
-        <v>187</v>
+      <c r="H38" s="13" t="s">
+        <v>324</v>
       </c>
       <c r="I38" t="s">
         <v>45</v>
@@ -2993,7 +3257,7 @@
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>156</v>
@@ -3008,7 +3272,7 @@
         <v>313</v>
       </c>
       <c r="H39" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I39" t="s">
         <v>45</v>
@@ -3016,7 +3280,7 @@
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>156</v>
@@ -3031,7 +3295,7 @@
         <v>313</v>
       </c>
       <c r="H40" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I40" t="s">
         <v>45</v>
@@ -3039,7 +3303,7 @@
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>156</v>
@@ -3054,7 +3318,7 @@
         <v>313</v>
       </c>
       <c r="H41" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I41" t="s">
         <v>45</v>
@@ -3062,7 +3326,7 @@
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>156</v>
@@ -3077,7 +3341,7 @@
         <v>313</v>
       </c>
       <c r="H42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I42" t="s">
         <v>45</v>
@@ -3085,94 +3349,76 @@
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E43" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>314</v>
+        <v>156</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>313</v>
       </c>
       <c r="H43" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="I43" t="s">
         <v>45</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" s="13" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>314</v>
+        <v>156</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>313</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="I44" t="s">
         <v>45</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="13" t="s">
-        <v>165</v>
+      <c r="B45" t="s">
+        <v>155</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>314</v>
+        <v>156</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>313</v>
       </c>
       <c r="H45" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="I45" t="s">
         <v>45</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" s="13" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>164</v>
@@ -3187,7 +3433,7 @@
         <v>314</v>
       </c>
       <c r="H46" t="s">
-        <v>52</v>
+        <v>251</v>
       </c>
       <c r="I46" t="s">
         <v>45</v>
@@ -3195,13 +3441,13 @@
       <c r="O46">
         <v>0</v>
       </c>
-      <c r="P46" t="s">
-        <v>162</v>
+      <c r="P46" s="13" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>164</v>
@@ -3225,81 +3471,99 @@
         <v>0</v>
       </c>
       <c r="P47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B48" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" t="s">
+        <v>45</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" t="s">
+        <v>45</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" t="s">
+        <v>45</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B49" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E49" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>313</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="I49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B50" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E50" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
-        <v>313</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="I50" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E51" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
-        <v>313</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="I51" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>250</v>
@@ -3314,7 +3578,7 @@
         <v>313</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I52" t="s">
         <v>45</v>
@@ -3322,7 +3586,7 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>250</v>
@@ -3337,7 +3601,7 @@
         <v>313</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I53" t="s">
         <v>45</v>
@@ -3345,7 +3609,7 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>250</v>
@@ -3360,7 +3624,7 @@
         <v>313</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I54" t="s">
         <v>45</v>
@@ -3368,7 +3632,7 @@
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>250</v>
@@ -3383,7 +3647,7 @@
         <v>313</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I55" t="s">
         <v>45</v>
@@ -3391,94 +3655,76 @@
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56" s="20" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E56" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H56" t="s">
-        <v>52</v>
+        <v>250</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>313</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>256</v>
       </c>
       <c r="I56" t="s">
         <v>45</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" s="20" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B57" s="20" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E57" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H57" t="s">
-        <v>52</v>
+        <v>250</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>313</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>257</v>
       </c>
       <c r="I57" t="s">
         <v>45</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" s="20" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B58" s="20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E58" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H58" t="s">
-        <v>52</v>
+        <v>250</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>313</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="I58" t="s">
         <v>45</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" s="20" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>265</v>
@@ -3502,12 +3748,12 @@
         <v>0</v>
       </c>
       <c r="P59" s="20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B60" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>265</v>
@@ -3531,12 +3777,12 @@
         <v>0</v>
       </c>
       <c r="P60" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B61" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>265</v>
@@ -3560,147 +3806,155 @@
         <v>0</v>
       </c>
       <c r="P61" s="20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B62" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E62" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H62" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" t="s">
+        <v>45</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B63" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E63" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H63" t="s">
+        <v>52</v>
+      </c>
+      <c r="I63" t="s">
+        <v>45</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B64" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E64" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H64" t="s">
+        <v>52</v>
+      </c>
+      <c r="I64" t="s">
+        <v>45</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" s="20" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B62" s="20"/>
-    </row>
-    <row r="63" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="3" t="s">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B65" s="20"/>
+    </row>
+    <row r="66" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11" t="s">
+      <c r="C66" s="11"/>
+      <c r="D66" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="11" t="b">
+      <c r="E66" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F63" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" s="17" t="s">
+      <c r="F66" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I66" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J66" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K63" s="3">
-        <v>0</v>
-      </c>
-      <c r="L63" s="3" t="s">
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O63" s="3">
-        <v>0</v>
-      </c>
-      <c r="P63" s="3" t="s">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="17"/>
-      <c r="L64" s="3" t="s">
+    <row r="67" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="17"/>
+      <c r="L67" s="3" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K65" s="3">
-        <v>0</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O65" s="3">
-        <v>0</v>
-      </c>
-      <c r="P65" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="17"/>
-      <c r="L66" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E67" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F67" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O67" s="3">
-        <v>0</v>
-      </c>
-      <c r="P67" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E68" s="11" t="b">
         <v>1</v>
@@ -3709,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>45</v>
@@ -3727,48 +3981,22 @@
         <v>0</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="C69" s="11"/>
-      <c r="D69" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E69" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F69" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K69" s="3">
-        <v>0</v>
-      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="17"/>
       <c r="L69" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O69" s="3">
-        <v>0</v>
-      </c>
-      <c r="P69" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11" t="s">
@@ -3783,9 +4011,6 @@
       <c r="G70" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I70" s="3" t="s">
         <v>45</v>
       </c>
@@ -3799,224 +4024,282 @@
         <v>0</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E71" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D74" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E71" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F71" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G71" s="17" t="s">
+      <c r="E74" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I71" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O71" s="3">
-        <v>0</v>
-      </c>
-      <c r="P71" s="3" t="s">
+      <c r="I74" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="4" t="s">
+    <row r="75" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E72" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F72" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72" s="4" t="s">
+      <c r="E75" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I72" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="18"/>
-      <c r="O73" s="4">
-        <v>0</v>
-      </c>
-      <c r="P73" s="4" t="s">
+      <c r="I75" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="18"/>
+      <c r="O76" s="4">
+        <v>0</v>
+      </c>
+      <c r="P76" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="4" t="s">
+    <row r="77" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E74" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F74" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74" s="4" t="s">
+      <c r="E77" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H77" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I74" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="18"/>
-      <c r="O75" s="4">
-        <v>0</v>
-      </c>
-      <c r="P75" s="4" t="s">
+      <c r="I77" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="18"/>
+      <c r="O78" s="4">
+        <v>0</v>
+      </c>
+      <c r="P78" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="4" t="s">
+    <row r="79" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E76" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G76" s="4" t="s">
+      <c r="E79" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H79" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I76" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="18"/>
-      <c r="O77" s="4">
-        <v>0</v>
-      </c>
-      <c r="P77" s="4" t="s">
+      <c r="I79" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="18"/>
+      <c r="O80" s="4">
+        <v>0</v>
+      </c>
+      <c r="P80" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="3" t="s">
+    <row r="81" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C81" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F78" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78" s="17" t="s">
+      <c r="D81" s="11"/>
+      <c r="E81" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" s="17" t="s">
         <v>312</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E79" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B81" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C81" t="s">
-        <v>64</v>
-      </c>
-      <c r="D81" t="s">
-        <v>65</v>
-      </c>
-      <c r="E81" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G81" t="s">
-        <v>311</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>48</v>
@@ -4024,19 +4307,13 @@
       <c r="I81" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C82" t="s">
-        <v>66</v>
-      </c>
-      <c r="D82" t="s">
-        <v>65</v>
+        <v>203</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E82" s="3" t="b">
         <v>0</v>
@@ -4044,8 +4321,8 @@
       <c r="F82" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G82" t="s">
-        <v>311</v>
+      <c r="G82" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>48</v>
@@ -4053,48 +4330,17 @@
       <c r="I82" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-    </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B83" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" t="s">
-        <v>67</v>
-      </c>
-      <c r="D83" t="s">
-        <v>65</v>
-      </c>
-      <c r="E83" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G83" t="s">
-        <v>311</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-    </row>
+    </row>
+    <row r="83" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C84" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E84" s="3" t="b">
         <v>0</v>
@@ -4111,23 +4357,19 @@
       <c r="I84" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O84" s="2">
-        <v>0</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C85" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D85" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E85" s="3" t="b">
         <v>0</v>
@@ -4144,23 +4386,19 @@
       <c r="I85" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O85" s="2">
-        <v>0</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C86" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D86" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E86" s="3" t="b">
         <v>0</v>
@@ -4177,23 +4415,19 @@
       <c r="I86" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O86" s="2">
-        <v>0</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C87" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D87" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E87" s="3" t="b">
         <v>0</v>
@@ -4202,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>48</v>
@@ -4210,19 +4444,23 @@
       <c r="I87" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
+      <c r="O87" s="2">
+        <v>0</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="Q87" s="2"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C88" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D88" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E88" s="3" t="b">
         <v>0</v>
@@ -4231,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>48</v>
@@ -4239,19 +4477,23 @@
       <c r="I88" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
+      <c r="O88" s="2">
+        <v>0</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="Q88" s="2"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C89" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D89" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E89" s="3" t="b">
         <v>0</v>
@@ -4260,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>48</v>
@@ -4268,16 +4510,20 @@
       <c r="I89" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
+      <c r="O89" s="2">
+        <v>0</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="Q89" s="2"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C90" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D90" t="s">
         <v>47</v>
@@ -4303,10 +4549,10 @@
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C91" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D91" t="s">
         <v>47</v>
@@ -4332,10 +4578,10 @@
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C92" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D92" t="s">
         <v>47</v>
@@ -4361,13 +4607,13 @@
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C93" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D93" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E93" s="3" t="b">
         <v>0</v>
@@ -4376,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>48</v>
@@ -4384,23 +4630,19 @@
       <c r="I93" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O93" s="2">
-        <v>0</v>
-      </c>
-      <c r="P93" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C94" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D94" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E94" s="3" t="b">
         <v>0</v>
@@ -4409,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>48</v>
@@ -4417,23 +4659,19 @@
       <c r="I94" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O94" s="2">
-        <v>0</v>
-      </c>
-      <c r="P94" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C95" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D95" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E95" s="3" t="b">
         <v>0</v>
@@ -4442,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>48</v>
@@ -4450,23 +4688,19 @@
       <c r="I95" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O95" s="2">
-        <v>0</v>
-      </c>
-      <c r="P95" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C96" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D96" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E96" s="3" t="b">
         <v>0</v>
@@ -4475,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>48</v>
@@ -4483,19 +4717,23 @@
       <c r="I96" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
+      <c r="O96" s="2">
+        <v>0</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="Q96" s="2"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C97" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D97" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E97" s="3" t="b">
         <v>0</v>
@@ -4504,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>48</v>
@@ -4512,19 +4750,23 @@
       <c r="I97" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
+      <c r="O97" s="2">
+        <v>0</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="Q97" s="2"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C98" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D98" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E98" s="3" t="b">
         <v>0</v>
@@ -4533,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>48</v>
@@ -4541,19 +4783,23 @@
       <c r="I98" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
+      <c r="O98" s="2">
+        <v>0</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="Q98" s="2"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C99" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D99" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E99" s="3" t="b">
         <v>0</v>
@@ -4576,13 +4822,13 @@
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C100" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D100" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E100" s="3" t="b">
         <v>0</v>
@@ -4605,13 +4851,13 @@
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C101" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D101" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E101" s="3" t="b">
         <v>0</v>
@@ -4623,7 +4869,7 @@
         <v>312</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>329</v>
+        <v>48</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>45</v>
@@ -4634,10 +4880,10 @@
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C102" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D102" t="s">
         <v>65</v>
@@ -4649,10 +4895,10 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>330</v>
+        <v>48</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>45</v>
@@ -4663,10 +4909,10 @@
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C103" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D103" t="s">
         <v>65</v>
@@ -4678,10 +4924,10 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>331</v>
+        <v>48</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>45</v>
@@ -4692,10 +4938,10 @@
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C104" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D104" t="s">
         <v>65</v>
@@ -4707,10 +4953,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>45</v>
@@ -4721,13 +4967,13 @@
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C105" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D105" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E105" s="3" t="b">
         <v>0</v>
@@ -4735,32 +4981,28 @@
       <c r="F105" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G105" t="s">
-        <v>312</v>
+      <c r="G105" s="13" t="s">
+        <v>357</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>48</v>
+        <v>330</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O105" s="2">
-        <v>0</v>
-      </c>
-      <c r="P105" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C106" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D106" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E106" s="3" t="b">
         <v>0</v>
@@ -4768,32 +5010,28 @@
       <c r="F106" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G106" t="s">
-        <v>312</v>
+      <c r="G106" s="13" t="s">
+        <v>358</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O106" s="2">
-        <v>0</v>
-      </c>
-      <c r="P106" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C107" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D107" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E107" s="3" t="b">
         <v>0</v>
@@ -4801,32 +5039,28 @@
       <c r="F107" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G107" t="s">
-        <v>312</v>
+      <c r="G107" s="13" t="s">
+        <v>359</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>48</v>
+        <v>332</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O107" s="2">
-        <v>0</v>
-      </c>
-      <c r="P107" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C108" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D108" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E108" s="3" t="b">
         <v>0</v>
@@ -4835,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>48</v>
@@ -4843,23 +5077,23 @@
       <c r="I108" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O108" s="3">
-        <v>0</v>
-      </c>
-      <c r="P108" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q108" s="3"/>
+      <c r="O108" s="2">
+        <v>0</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q108" s="2"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C109" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D109" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E109" s="3" t="b">
         <v>0</v>
@@ -4868,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>48</v>
@@ -4876,23 +5110,23 @@
       <c r="I109" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O109" s="3">
-        <v>0</v>
-      </c>
-      <c r="P109" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q109" s="3"/>
+      <c r="O109" s="2">
+        <v>0</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q109" s="2"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C110" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D110" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E110" s="3" t="b">
         <v>0</v>
@@ -4901,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>48</v>
@@ -4909,23 +5143,23 @@
       <c r="I110" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O110" s="3">
-        <v>0</v>
-      </c>
-      <c r="P110" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q110" s="3"/>
+      <c r="O110" s="2">
+        <v>0</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q110" s="2"/>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C111" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D111" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="E111" s="3" t="b">
         <v>0</v>
@@ -4934,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>48</v>
@@ -4946,18 +5180,19 @@
         <v>0</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="Q111" s="3"/>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B112" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D112" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="E112" s="3" t="b">
         <v>0</v>
@@ -4966,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>48</v>
@@ -4978,18 +5213,19 @@
         <v>0</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="Q112" s="3"/>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C113" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D113" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="E113" s="3" t="b">
         <v>0</v>
@@ -4998,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>48</v>
@@ -5010,18 +5246,19 @@
         <v>0</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Q113" s="3"/>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C114" t="s">
-        <v>96</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>62</v>
+        <v>109</v>
+      </c>
+      <c r="D114" t="s">
+        <v>110</v>
       </c>
       <c r="E114" s="3" t="b">
         <v>0</v>
@@ -5032,22 +5269,28 @@
       <c r="G114" t="s">
         <v>312</v>
       </c>
-      <c r="H114" s="22" t="s">
-        <v>282</v>
+      <c r="H114" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="O114" s="3">
+        <v>0</v>
+      </c>
+      <c r="P114" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C115" t="s">
-        <v>99</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>62</v>
+        <v>112</v>
+      </c>
+      <c r="D115" t="s">
+        <v>110</v>
       </c>
       <c r="E115" s="3" t="b">
         <v>0</v>
@@ -5058,22 +5301,28 @@
       <c r="G115" t="s">
         <v>312</v>
       </c>
-      <c r="H115" s="22" t="s">
-        <v>283</v>
+      <c r="H115" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="O115" s="3">
+        <v>0</v>
+      </c>
+      <c r="P115" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C116" t="s">
-        <v>101</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>62</v>
+        <v>114</v>
+      </c>
+      <c r="D116" t="s">
+        <v>110</v>
       </c>
       <c r="E116" s="3" t="b">
         <v>0</v>
@@ -5084,19 +5333,25 @@
       <c r="G116" t="s">
         <v>312</v>
       </c>
-      <c r="H116" s="22" t="s">
-        <v>284</v>
+      <c r="H116" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="O116" s="3">
+        <v>0</v>
+      </c>
+      <c r="P116" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C117" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>62</v>
@@ -5110,8 +5365,8 @@
       <c r="G117" t="s">
         <v>312</v>
       </c>
-      <c r="H117" s="3" t="s">
-        <v>116</v>
+      <c r="H117" s="22" t="s">
+        <v>282</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>45</v>
@@ -5119,10 +5374,10 @@
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C118" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>62</v>
@@ -5136,8 +5391,8 @@
       <c r="G118" t="s">
         <v>312</v>
       </c>
-      <c r="H118" s="3" t="s">
-        <v>117</v>
+      <c r="H118" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>45</v>
@@ -5145,10 +5400,10 @@
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B119" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C119" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>62</v>
@@ -5162,115 +5417,135 @@
       <c r="G119" t="s">
         <v>312</v>
       </c>
-      <c r="H119" s="3" t="s">
+      <c r="H119" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B120" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120" t="s">
+        <v>81</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E120" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>312</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B121" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C121" t="s">
+        <v>83</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E121" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>312</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B122" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122" t="s">
+        <v>85</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E122" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>312</v>
+      </c>
+      <c r="H122" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I119" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B120" s="23" t="s">
+      <c r="I122" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B123" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="C123" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D123" t="s">
         <v>65</v>
       </c>
-      <c r="E120" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F120" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="E123" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
         <v>319</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="H123" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I120" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B121" s="23" t="s">
+      <c r="I123" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B124" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C124" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D124" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F121" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G121" t="s">
+      <c r="E124" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
         <v>320</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B122" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="D122" t="s">
-        <v>65</v>
-      </c>
-      <c r="E122" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F122" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G122" t="s">
-        <v>321</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O122">
-        <v>0</v>
-      </c>
-      <c r="P122" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>333</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E124" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F124" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G124" t="s">
-        <v>312</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>48</v>
@@ -5278,33 +5553,25 @@
       <c r="I124" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
-      <c r="M124" s="3"/>
-      <c r="N124" s="3"/>
-      <c r="O124" s="3"/>
-      <c r="P124" s="3"/>
-      <c r="Q124" s="3"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
-        <v>334</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E125" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F125" s="19" t="b">
+      <c r="B125" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D125" t="s">
+        <v>65</v>
+      </c>
+      <c r="E125" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>48</v>
@@ -5312,156 +5579,222 @@
       <c r="I125" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
-      <c r="M125" s="3"/>
-      <c r="N125" s="3"/>
-      <c r="O125" s="3"/>
-      <c r="P125" s="3"/>
-      <c r="Q125" s="3"/>
-    </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>333</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E127" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>312</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>334</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E128" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F128" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>312</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
         <v>335</v>
       </c>
-      <c r="C126" s="19" t="s">
+      <c r="C129" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="D126" s="13" t="s">
+      <c r="D129" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="E126" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F126" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="E129" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
         <v>312</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="H129" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I126" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
-      <c r="M126" s="3"/>
-      <c r="N126" s="3"/>
-      <c r="O126" s="3"/>
-      <c r="P126" s="3"/>
-      <c r="Q126" s="3"/>
-    </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B127" s="23" t="s">
+      <c r="I129" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B130" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="C130" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D130" t="s">
         <v>343</v>
       </c>
-      <c r="E127" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F127" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="E130" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
         <v>345</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="H130" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="I127" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O127">
-        <v>0</v>
-      </c>
-      <c r="P127" s="13" t="s">
+      <c r="I130" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130" s="13" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B128" s="23" t="s">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B131" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="C128" s="13" t="s">
+      <c r="C131" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D131" t="s">
         <v>343</v>
       </c>
-      <c r="E128" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F128" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G128" t="s">
+      <c r="E131" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
         <v>347</v>
       </c>
-      <c r="H128" s="3" t="s">
+      <c r="H131" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="I128" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O128">
-        <v>0</v>
-      </c>
-      <c r="P128" s="13" t="s">
+      <c r="I131" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131" s="13" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B129" s="23" t="s">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B132" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="C132" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D132" t="s">
         <v>343</v>
       </c>
-      <c r="E129" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F129" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G129" t="s">
+      <c r="E132" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F132" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
         <v>349</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="H132" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="I129" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
-      <c r="P129" s="13" t="s">
+      <c r="I132" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B130" s="23"/>
-      <c r="C130" s="13"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="O130">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B133" s="23"/>
+      <c r="C133" s="13"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="O133">
         <v>0.5</v>
       </c>
-      <c r="P130" s="13" t="s">
+      <c r="P133" s="13" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5475,52 +5808,52 @@
     <mergeCell ref="O3:R3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="B56">
+  <conditionalFormatting sqref="B59">
     <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
+  <conditionalFormatting sqref="B60">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
+  <conditionalFormatting sqref="B61">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
+  <conditionalFormatting sqref="B62">
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
+  <conditionalFormatting sqref="B63">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
+  <conditionalFormatting sqref="B64">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B126 B62:B119 B1:B26 B34:B55 B131:B1048576">
+  <conditionalFormatting sqref="B127:B129 B65:B122 B1:B26 B37:B58 B134:B1048576">
     <cfRule type="duplicateValues" dxfId="9" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49:H55">
+  <conditionalFormatting sqref="H52:H58">
     <cfRule type="duplicateValues" dxfId="8" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H102:H104">
+  <conditionalFormatting sqref="H105:H107">
     <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H114:H116">
+  <conditionalFormatting sqref="H117:H119">
     <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P56">
+  <conditionalFormatting sqref="P59">
     <cfRule type="duplicateValues" dxfId="5" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P57">
+  <conditionalFormatting sqref="P60">
     <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P58">
+  <conditionalFormatting sqref="P61">
     <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P59">
+  <conditionalFormatting sqref="P62">
     <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P60">
+  <conditionalFormatting sqref="P63">
     <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P61">
+  <conditionalFormatting sqref="P64">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6160FED1-C8EC-452F-AB3D-3FA32C575EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF91E308-349B-4710-8A06-17B761D7FB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="392">
   <si>
     <t>##var</t>
   </si>
@@ -1390,10 +1390,6 @@
     <t>怪物技能-种子3</t>
   </si>
   <si>
-    <t>怪物技能-蛋2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物技能-蛋3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1477,6 +1473,57 @@
   </si>
   <si>
     <t>BuffAdd_Line2_Fire</t>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_Dan3_Hit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Monster_Stun_Buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Monster_Long3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-龙3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_SelectLast</t>
+  </si>
+  <si>
+    <t>AttackArea_XueRen3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-雪人3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Monster_XueRen3_Buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Attack_Monster_Xueren3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-蛋2/蛋1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_FireSea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Attack_FireSea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1667,7 +1714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -1711,6 +1758,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1736,7 +1786,17 @@
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="好 3" xfId="3" xr:uid="{F37074F8-BB21-4752-9520-5363098F3E8A}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2168,32 +2228,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y133"/>
+  <dimension ref="A1:Y138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P12:P14"/>
+      <pane ySplit="5" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="44.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43" customWidth="1"/>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
-    <col min="10" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="11" width="7.625" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="5.75" customWidth="1"/>
-    <col min="14" max="15" width="7.875" customWidth="1"/>
-    <col min="16" max="18" width="6.625" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" customWidth="1"/>
+    <col min="14" max="15" width="7.88671875" customWidth="1"/>
+    <col min="16" max="18" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2218,22 +2278,22 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="25" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="25" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="26"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="27"/>
       <c r="S1"/>
       <c r="T1"/>
       <c r="U1"/>
@@ -2242,7 +2302,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2291,7 +2351,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -2316,22 +2376,22 @@
       <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="28" t="s">
+      <c r="J3" s="30"/>
+      <c r="K3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="28" t="s">
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="29"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="30"/>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -2340,7 +2400,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -2370,7 +2430,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
@@ -2431,7 +2491,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>121</v>
       </c>
@@ -2455,7 +2515,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>122</v>
       </c>
@@ -2479,7 +2539,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>123</v>
       </c>
@@ -2509,7 +2569,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>53</v>
       </c>
@@ -2533,7 +2593,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>124</v>
       </c>
@@ -2557,7 +2617,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>125</v>
       </c>
@@ -2581,7 +2641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>126</v>
       </c>
@@ -2604,10 +2664,10 @@
         <v>45</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>127</v>
       </c>
@@ -2630,10 +2690,10 @@
         <v>45</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>128</v>
       </c>
@@ -2662,7 +2722,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>137</v>
       </c>
@@ -2685,7 +2745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>129</v>
       </c>
@@ -2708,7 +2768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>130</v>
       </c>
@@ -2731,7 +2791,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>138</v>
       </c>
@@ -2755,7 +2815,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>139</v>
       </c>
@@ -2779,7 +2839,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>140</v>
       </c>
@@ -2803,7 +2863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>141</v>
       </c>
@@ -2826,7 +2886,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>142</v>
       </c>
@@ -2849,7 +2909,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>143</v>
       </c>
@@ -2872,7 +2932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>144</v>
       </c>
@@ -2910,7 +2970,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>146</v>
       </c>
@@ -2948,7 +3008,7 @@
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>147</v>
       </c>
@@ -2986,7 +3046,7 @@
       </c>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>274</v>
       </c>
@@ -3012,12 +3072,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="D28" s="13"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
         <v>322</v>
       </c>
@@ -3040,7 +3100,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>326</v>
       </c>
@@ -3074,12 +3134,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="D31" s="13"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>363</v>
       </c>
@@ -3093,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H32" s="22" t="s">
         <v>325</v>
@@ -3102,7 +3162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
         <v>364</v>
       </c>
@@ -3116,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H33" s="22" t="s">
         <v>325</v>
@@ -3125,7 +3185,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="22" t="s">
         <v>365</v>
       </c>
@@ -3139,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>325</v>
@@ -3148,12 +3208,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
         <v>366</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="E35" s="19" t="b">
         <v>0</v>
@@ -3162,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H35" t="s">
         <v>52</v>
@@ -3182,12 +3242,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
         <v>367</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E36" s="19" t="b">
         <v>0</v>
@@ -3196,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H36" t="s">
         <v>52</v>
@@ -3213,97 +3273,111 @@
         <v>0</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C37" s="19"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="22"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E38" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="E39" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" s="22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>148</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E38" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>313</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="I38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>313</v>
-      </c>
-      <c r="H39" t="s">
-        <v>185</v>
-      </c>
-      <c r="I39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E40" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>313</v>
-      </c>
-      <c r="H40" t="s">
-        <v>186</v>
-      </c>
-      <c r="I40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>151</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>156</v>
@@ -3317,16 +3391,16 @@
       <c r="G41" t="s">
         <v>313</v>
       </c>
-      <c r="H41" t="s">
-        <v>187</v>
+      <c r="H41" s="13" t="s">
+        <v>324</v>
       </c>
       <c r="I41" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>156</v>
@@ -3341,15 +3415,15 @@
         <v>313</v>
       </c>
       <c r="H42" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>156</v>
@@ -3364,15 +3438,15 @@
         <v>313</v>
       </c>
       <c r="H43" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>156</v>
@@ -3387,15 +3461,15 @@
         <v>313</v>
       </c>
       <c r="H44" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>156</v>
@@ -3410,102 +3484,84 @@
         <v>313</v>
       </c>
       <c r="H45" t="s">
+        <v>188</v>
+      </c>
+      <c r="I45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>313</v>
+      </c>
+      <c r="H46" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>313</v>
+      </c>
+      <c r="H47" t="s">
+        <v>190</v>
+      </c>
+      <c r="I47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>313</v>
+      </c>
+      <c r="H48" t="s">
         <v>191</v>
       </c>
-      <c r="I45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+      <c r="I48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>157</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H46" t="s">
-        <v>251</v>
-      </c>
-      <c r="I46" t="s">
-        <v>45</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>158</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E47" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H47" t="s">
-        <v>52</v>
-      </c>
-      <c r="I47" t="s">
-        <v>45</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E48" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H48" t="s">
-        <v>52</v>
-      </c>
-      <c r="I48" t="s">
-        <v>45</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>159</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>164</v>
@@ -3520,7 +3576,7 @@
         <v>314</v>
       </c>
       <c r="H49" t="s">
-        <v>52</v>
+        <v>251</v>
       </c>
       <c r="I49" t="s">
         <v>45</v>
@@ -3528,13 +3584,13 @@
       <c r="O49">
         <v>0</v>
       </c>
-      <c r="P49" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P49" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>164</v>
@@ -3558,81 +3614,99 @@
         <v>0</v>
       </c>
       <c r="P50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H52" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" t="s">
+        <v>45</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H53" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53" t="s">
+        <v>45</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="20" t="s">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="20" t="s">
         <v>243</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E52" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" t="s">
-        <v>313</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="I52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E53" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s">
-        <v>313</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="I53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>313</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="I54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="20" t="s">
-        <v>246</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>250</v>
@@ -3647,15 +3721,15 @@
         <v>313</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>250</v>
@@ -3670,15 +3744,15 @@
         <v>313</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I56" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>250</v>
@@ -3693,15 +3767,15 @@
         <v>313</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>250</v>
@@ -3716,102 +3790,84 @@
         <v>313</v>
       </c>
       <c r="H58" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="I58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>313</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="I59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>313</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="I60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>313</v>
+      </c>
+      <c r="H61" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="I58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B59" s="20" t="s">
+      <c r="I61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="20" t="s">
         <v>259</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E59" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H59" t="s">
-        <v>52</v>
-      </c>
-      <c r="I59" t="s">
-        <v>45</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" s="20" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B60" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E60" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H60" t="s">
-        <v>52</v>
-      </c>
-      <c r="I60" t="s">
-        <v>45</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B61" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E61" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H61" t="s">
-        <v>52</v>
-      </c>
-      <c r="I61" t="s">
-        <v>45</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" s="20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B62" s="20" t="s">
-        <v>262</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>265</v>
@@ -3835,12 +3891,12 @@
         <v>0</v>
       </c>
       <c r="P62" s="20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>265</v>
@@ -3864,12 +3920,12 @@
         <v>0</v>
       </c>
       <c r="P63" s="20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>265</v>
@@ -3893,147 +3949,155 @@
         <v>0</v>
       </c>
       <c r="P64" s="20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E65" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H65" t="s">
+        <v>52</v>
+      </c>
+      <c r="I65" t="s">
+        <v>45</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E66" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H66" t="s">
+        <v>52</v>
+      </c>
+      <c r="I66" t="s">
+        <v>45</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H67" t="s">
+        <v>52</v>
+      </c>
+      <c r="I67" t="s">
+        <v>45</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" s="20" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B65" s="20"/>
-    </row>
-    <row r="66" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="3" t="s">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="20"/>
+    </row>
+    <row r="69" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11" t="s">
+      <c r="C69" s="11"/>
+      <c r="D69" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E66" s="11" t="b">
+      <c r="E69" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F66" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" s="17" t="s">
+      <c r="F69" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H69" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I69" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="J69" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3" t="s">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
-      <c r="P66" s="3" t="s">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="17"/>
-      <c r="L67" s="3" t="s">
+    <row r="70" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="17"/>
+      <c r="L70" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="3" t="s">
+    <row r="71" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E68" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F68" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K68" s="3">
-        <v>0</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O68" s="3">
-        <v>0</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="17"/>
-      <c r="L69" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E70" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F70" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E71" s="11" t="b">
         <v>1</v>
@@ -4042,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>45</v>
@@ -4060,48 +4124,22 @@
         <v>0</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="3" t="s">
-        <v>196</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C72" s="11"/>
-      <c r="D72" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E72" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="17"/>
       <c r="L72" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11" t="s">
@@ -4116,9 +4154,6 @@
       <c r="G73" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I73" s="3" t="s">
         <v>45</v>
       </c>
@@ -4132,224 +4167,282 @@
         <v>0</v>
       </c>
       <c r="P73" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="3" t="s">
+    <row r="75" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E76" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D77" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E74" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F74" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74" s="17" t="s">
+      <c r="E77" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O74" s="3">
-        <v>0</v>
-      </c>
-      <c r="P74" s="3" t="s">
+      <c r="I77" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="4" t="s">
+    <row r="78" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G75" s="4" t="s">
+      <c r="E78" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I75" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="18"/>
-      <c r="O76" s="4">
-        <v>0</v>
-      </c>
-      <c r="P76" s="4" t="s">
+      <c r="I78" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="18"/>
+      <c r="O79" s="4">
+        <v>0</v>
+      </c>
+      <c r="P79" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="4" t="s">
+    <row r="80" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E77" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G77" s="4" t="s">
+      <c r="E80" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I77" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="18"/>
-      <c r="O78" s="4">
-        <v>0</v>
-      </c>
-      <c r="P78" s="4" t="s">
+      <c r="I80" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="18"/>
+      <c r="O81" s="4">
+        <v>0</v>
+      </c>
+      <c r="P81" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="4" t="s">
+    <row r="82" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E79" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G79" s="4" t="s">
+      <c r="E82" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="18"/>
-      <c r="O80" s="4">
-        <v>0</v>
-      </c>
-      <c r="P80" s="4" t="s">
+      <c r="I82" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="18"/>
+      <c r="O83" s="4">
+        <v>0</v>
+      </c>
+      <c r="P83" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="3" t="s">
+    <row r="84" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G81" s="17" t="s">
+      <c r="D84" s="11"/>
+      <c r="E84" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" s="17" t="s">
         <v>312</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E82" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F82" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B84" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C84" t="s">
-        <v>64</v>
-      </c>
-      <c r="D84" t="s">
-        <v>65</v>
-      </c>
-      <c r="E84" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G84" t="s">
-        <v>311</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>48</v>
@@ -4357,19 +4450,13 @@
       <c r="I84" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C85" t="s">
-        <v>66</v>
-      </c>
-      <c r="D85" t="s">
-        <v>65</v>
+        <v>203</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E85" s="3" t="b">
         <v>0</v>
@@ -4377,8 +4464,8 @@
       <c r="F85" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G85" t="s">
-        <v>311</v>
+      <c r="G85" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>48</v>
@@ -4386,48 +4473,17 @@
       <c r="I85" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B86" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C86" t="s">
-        <v>67</v>
-      </c>
-      <c r="D86" t="s">
+    </row>
+    <row r="86" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87" t="s">
         <v>65</v>
-      </c>
-      <c r="E86" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G86" t="s">
-        <v>311</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B87" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C87" t="s">
-        <v>68</v>
-      </c>
-      <c r="D87" t="s">
-        <v>69</v>
       </c>
       <c r="E87" s="3" t="b">
         <v>0</v>
@@ -4444,23 +4500,19 @@
       <c r="I87" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O87" s="2">
-        <v>0</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C88" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D88" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E88" s="3" t="b">
         <v>0</v>
@@ -4477,23 +4529,19 @@
       <c r="I88" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O88" s="2">
-        <v>0</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C89" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E89" s="3" t="b">
         <v>0</v>
@@ -4510,23 +4558,19 @@
       <c r="I89" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O89" s="2">
-        <v>0</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C90" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E90" s="3" t="b">
         <v>0</v>
@@ -4535,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>48</v>
@@ -4543,19 +4587,23 @@
       <c r="I90" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
+      <c r="O90" s="2">
+        <v>0</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C91" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D91" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E91" s="3" t="b">
         <v>0</v>
@@ -4564,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>48</v>
@@ -4572,19 +4620,23 @@
       <c r="I91" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
+      <c r="O91" s="2">
+        <v>0</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C92" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D92" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E92" s="3" t="b">
         <v>0</v>
@@ -4593,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>48</v>
@@ -4601,16 +4653,20 @@
       <c r="I92" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
+      <c r="O92" s="2">
+        <v>0</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C93" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D93" t="s">
         <v>47</v>
@@ -4634,12 +4690,12 @@
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C94" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D94" t="s">
         <v>47</v>
@@ -4663,12 +4719,12 @@
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C95" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D95" t="s">
         <v>47</v>
@@ -4692,15 +4748,15 @@
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C96" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D96" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E96" s="3" t="b">
         <v>0</v>
@@ -4709,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>48</v>
@@ -4717,23 +4773,19 @@
       <c r="I96" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O96" s="2">
-        <v>0</v>
-      </c>
-      <c r="P96" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C97" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D97" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E97" s="3" t="b">
         <v>0</v>
@@ -4742,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>48</v>
@@ -4750,23 +4802,19 @@
       <c r="I97" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O97" s="2">
-        <v>0</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C98" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D98" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E98" s="3" t="b">
         <v>0</v>
@@ -4775,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>48</v>
@@ -4783,23 +4831,19 @@
       <c r="I98" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O98" s="2">
-        <v>0</v>
-      </c>
-      <c r="P98" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C99" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D99" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E99" s="3" t="b">
         <v>0</v>
@@ -4808,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>48</v>
@@ -4816,19 +4860,23 @@
       <c r="I99" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
+      <c r="O99" s="2">
+        <v>0</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C100" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D100" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E100" s="3" t="b">
         <v>0</v>
@@ -4837,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>48</v>
@@ -4845,19 +4893,23 @@
       <c r="I100" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
+      <c r="O100" s="2">
+        <v>0</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C101" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D101" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E101" s="3" t="b">
         <v>0</v>
@@ -4866,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>48</v>
@@ -4874,19 +4926,23 @@
       <c r="I101" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
+      <c r="O101" s="2">
+        <v>0</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C102" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D102" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E102" s="3" t="b">
         <v>0</v>
@@ -4907,15 +4963,15 @@
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C103" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D103" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E103" s="3" t="b">
         <v>0</v>
@@ -4936,15 +4992,15 @@
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C104" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D104" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E104" s="3" t="b">
         <v>0</v>
@@ -4956,7 +5012,7 @@
         <v>312</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>329</v>
+        <v>48</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>45</v>
@@ -4965,12 +5021,12 @@
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C105" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D105" t="s">
         <v>65</v>
@@ -4981,11 +5037,11 @@
       <c r="F105" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G105" s="13" t="s">
-        <v>357</v>
+      <c r="G105" t="s">
+        <v>312</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>330</v>
+        <v>48</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>45</v>
@@ -4994,12 +5050,12 @@
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C106" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D106" t="s">
         <v>65</v>
@@ -5010,11 +5066,11 @@
       <c r="F106" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G106" s="13" t="s">
-        <v>358</v>
+      <c r="G106" t="s">
+        <v>312</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>331</v>
+        <v>48</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>45</v>
@@ -5023,12 +5079,12 @@
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C107" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D107" t="s">
         <v>65</v>
@@ -5039,11 +5095,11 @@
       <c r="F107" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G107" s="13" t="s">
-        <v>359</v>
+      <c r="G107" t="s">
+        <v>312</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>45</v>
@@ -5052,123 +5108,111 @@
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" t="s">
+        <v>93</v>
+      </c>
+      <c r="D108" t="s">
+        <v>65</v>
+      </c>
+      <c r="E108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C109" t="s">
+        <v>94</v>
+      </c>
+      <c r="D109" t="s">
+        <v>65</v>
+      </c>
+      <c r="E109" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" t="s">
+        <v>95</v>
+      </c>
+      <c r="D110" t="s">
+        <v>65</v>
+      </c>
+      <c r="E110" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C111" t="s">
         <v>96</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D111" t="s">
         <v>97</v>
       </c>
-      <c r="E108" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F108" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="E111" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
         <v>312</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O108" s="2">
-        <v>0</v>
-      </c>
-      <c r="P108" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q108" s="2"/>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B109" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C109" t="s">
-        <v>99</v>
-      </c>
-      <c r="D109" t="s">
-        <v>97</v>
-      </c>
-      <c r="E109" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F109" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G109" t="s">
-        <v>312</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O109" s="2">
-        <v>0</v>
-      </c>
-      <c r="P109" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q109" s="2"/>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B110" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C110" t="s">
-        <v>101</v>
-      </c>
-      <c r="D110" t="s">
-        <v>97</v>
-      </c>
-      <c r="E110" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F110" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G110" t="s">
-        <v>312</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O110" s="2">
-        <v>0</v>
-      </c>
-      <c r="P110" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q110" s="2"/>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B111" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C111" t="s">
-        <v>103</v>
-      </c>
-      <c r="D111" t="s">
-        <v>69</v>
-      </c>
-      <c r="E111" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F111" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G111" t="s">
-        <v>311</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>48</v>
@@ -5176,23 +5220,23 @@
       <c r="I111" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O111" s="3">
-        <v>0</v>
-      </c>
-      <c r="P111" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q111" s="3"/>
-    </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O111" s="2">
+        <v>0</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q111" s="2"/>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C112" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D112" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E112" s="3" t="b">
         <v>0</v>
@@ -5201,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>48</v>
@@ -5209,23 +5253,23 @@
       <c r="I112" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O112" s="3">
-        <v>0</v>
-      </c>
-      <c r="P112" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q112" s="3"/>
-    </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O112" s="2">
+        <v>0</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q112" s="2"/>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C113" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D113" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E113" s="3" t="b">
         <v>0</v>
@@ -5234,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>48</v>
@@ -5242,23 +5286,23 @@
       <c r="I113" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O113" s="3">
-        <v>0</v>
-      </c>
-      <c r="P113" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q113" s="3"/>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O113" s="2">
+        <v>0</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q113" s="2"/>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C114" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D114" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="E114" s="3" t="b">
         <v>0</v>
@@ -5267,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>48</v>
@@ -5279,18 +5323,19 @@
         <v>0</v>
       </c>
       <c r="P114" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="Q114" s="3"/>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C115" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D115" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="E115" s="3" t="b">
         <v>0</v>
@@ -5299,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>48</v>
@@ -5311,18 +5356,19 @@
         <v>0</v>
       </c>
       <c r="P115" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="Q115" s="3"/>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C116" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D116" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="E116" s="3" t="b">
         <v>0</v>
@@ -5331,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>48</v>
@@ -5343,18 +5389,19 @@
         <v>0</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="Q116" s="3"/>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C117" t="s">
-        <v>96</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>62</v>
+        <v>109</v>
+      </c>
+      <c r="D117" t="s">
+        <v>110</v>
       </c>
       <c r="E117" s="3" t="b">
         <v>0</v>
@@ -5365,22 +5412,28 @@
       <c r="G117" t="s">
         <v>312</v>
       </c>
-      <c r="H117" s="22" t="s">
-        <v>282</v>
+      <c r="H117" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O117" s="3">
+        <v>0</v>
+      </c>
+      <c r="P117" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C118" t="s">
-        <v>99</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>62</v>
+        <v>112</v>
+      </c>
+      <c r="D118" t="s">
+        <v>110</v>
       </c>
       <c r="E118" s="3" t="b">
         <v>0</v>
@@ -5391,22 +5444,28 @@
       <c r="G118" t="s">
         <v>312</v>
       </c>
-      <c r="H118" s="22" t="s">
-        <v>283</v>
+      <c r="H118" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O118" s="3">
+        <v>0</v>
+      </c>
+      <c r="P118" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C119" t="s">
-        <v>101</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>62</v>
+        <v>114</v>
+      </c>
+      <c r="D119" t="s">
+        <v>110</v>
       </c>
       <c r="E119" s="3" t="b">
         <v>0</v>
@@ -5417,19 +5476,25 @@
       <c r="G119" t="s">
         <v>312</v>
       </c>
-      <c r="H119" s="22" t="s">
-        <v>284</v>
+      <c r="H119" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O119" s="3">
+        <v>0</v>
+      </c>
+      <c r="P119" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C120" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D120" s="13" t="s">
         <v>62</v>
@@ -5443,19 +5508,19 @@
       <c r="G120" t="s">
         <v>312</v>
       </c>
-      <c r="H120" s="3" t="s">
-        <v>116</v>
+      <c r="H120" s="22" t="s">
+        <v>282</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C121" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>62</v>
@@ -5469,19 +5534,19 @@
       <c r="G121" t="s">
         <v>312</v>
       </c>
-      <c r="H121" s="3" t="s">
-        <v>117</v>
+      <c r="H121" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C122" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>62</v>
@@ -5495,115 +5560,135 @@
       <c r="G122" t="s">
         <v>312</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H122" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B123" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" t="s">
+        <v>81</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E123" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>312</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C124" t="s">
+        <v>83</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E124" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>312</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B125" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C125" t="s">
+        <v>85</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E125" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>312</v>
+      </c>
+      <c r="H125" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I122" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B123" s="23" t="s">
+      <c r="I125" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B126" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="C126" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D126" t="s">
         <v>65</v>
       </c>
-      <c r="E123" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F123" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G123" t="s">
+      <c r="E126" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
         <v>319</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="H126" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I123" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B124" s="23" t="s">
+      <c r="I126" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B127" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="C127" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D127" t="s">
         <v>65</v>
       </c>
-      <c r="E124" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F124" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G124" t="s">
+      <c r="E127" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
         <v>320</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B125" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="D125" t="s">
-        <v>65</v>
-      </c>
-      <c r="E125" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F125" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G125" t="s">
-        <v>321</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O125">
-        <v>0</v>
-      </c>
-      <c r="P125" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>333</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E127" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F127" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G127" t="s">
-        <v>312</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>48</v>
@@ -5611,33 +5696,25 @@
       <c r="I127" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
-      <c r="M127" s="3"/>
-      <c r="N127" s="3"/>
-      <c r="O127" s="3"/>
-      <c r="P127" s="3"/>
-      <c r="Q127" s="3"/>
-    </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>334</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E128" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F128" s="19" t="b">
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B128" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D128" t="s">
+        <v>65</v>
+      </c>
+      <c r="E128" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F128" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>48</v>
@@ -5645,157 +5722,246 @@
       <c r="I128" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
-      <c r="M128" s="3"/>
-      <c r="N128" s="3"/>
-      <c r="O128" s="3"/>
-      <c r="P128" s="3"/>
-      <c r="Q128" s="3"/>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>333</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E130" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
+        <v>312</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>334</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E131" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>312</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>335</v>
       </c>
-      <c r="C129" s="19" t="s">
+      <c r="C132" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="D129" s="13" t="s">
+      <c r="D132" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="E129" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F129" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G129" t="s">
+      <c r="E132" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F132" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
         <v>312</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="H132" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I129" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-      <c r="L129" s="3"/>
-      <c r="M129" s="3"/>
-      <c r="N129" s="3"/>
-      <c r="O129" s="3"/>
-      <c r="P129" s="3"/>
-      <c r="Q129" s="3"/>
-    </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B130" s="23" t="s">
+      <c r="I132" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B133" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="C133" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D133" t="s">
         <v>343</v>
       </c>
-      <c r="E130" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F130" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G130" t="s">
+      <c r="E133" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F133" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
         <v>345</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="H133" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="I130" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O130">
-        <v>0</v>
-      </c>
-      <c r="P130" s="13" t="s">
+      <c r="I133" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133" s="13" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B131" s="23" t="s">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B134" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C134" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D134" t="s">
         <v>343</v>
       </c>
-      <c r="E131" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F131" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G131" t="s">
+      <c r="E134" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F134" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
         <v>347</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="H134" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="I131" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O131">
-        <v>0</v>
-      </c>
-      <c r="P131" s="13" t="s">
+      <c r="I134" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134" s="13" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B132" s="23" t="s">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B135" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C135" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D135" t="s">
         <v>343</v>
       </c>
-      <c r="E132" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F132" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G132" t="s">
+      <c r="E135" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
         <v>349</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="H135" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="I132" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O132">
-        <v>0</v>
-      </c>
-      <c r="P132" s="13" t="s">
+      <c r="I135" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B133" s="23"/>
-      <c r="C133" s="13"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="O133">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B136" s="23"/>
+      <c r="C136" s="13"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="O136">
         <v>0.5</v>
       </c>
-      <c r="P133" s="13" t="s">
+      <c r="P136" s="13" t="s">
         <v>356</v>
+      </c>
+    </row>
+    <row r="138" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="E138" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F138" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G138" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I138" s="17" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5808,53 +5974,56 @@
     <mergeCell ref="O3:R3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="B59">
+  <conditionalFormatting sqref="B62">
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
     <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
+  <conditionalFormatting sqref="B64">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
+  <conditionalFormatting sqref="B65">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
+  <conditionalFormatting sqref="B66">
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
+  <conditionalFormatting sqref="B67">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  <conditionalFormatting sqref="B130:B132 B68:B125 B1:B26 B41:B61 B137:B1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127:B129 B65:B122 B1:B26 B37:B58 B134:B1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="18"/>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52:H58">
-    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
+  <conditionalFormatting sqref="H55:H61">
+    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H105:H107">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  <conditionalFormatting sqref="H108:H110">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H117:H119">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P59">
-    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P60">
-    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P61">
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+  <conditionalFormatting sqref="H120:H122">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P62">
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P64">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P65">
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P66">
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P67">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF91E308-349B-4710-8A06-17B761D7FB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33682B4-76EF-4858-AF45-1997CE2AD653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="玩家技能" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="404">
   <si>
     <t>##var</t>
   </si>
@@ -1523,6 +1537,54 @@
   </si>
   <si>
     <t>SelectObject_Attack_FireSea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_PlayerSkill_BreakArmor_Hit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害敌方并降低护甲</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_PlayerSkill_BreakArmor_Hit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_PlayerSkill_BreakArmor_Hit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_PlayerSkill_IceBind_Hit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜漩涡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结范围内的所有敌人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_PlayerSkill_IceBind_Hit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_PlayerSkill_IceBind_Hit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_PlayerSkill_BreakArmor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_PlayerSkill_IceBind</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1714,7 +1776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -1779,6 +1841,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1786,7 +1851,27 @@
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="好 3" xfId="3" xr:uid="{F37074F8-BB21-4752-9520-5363098F3E8A}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2230,30 +2315,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="44.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" customWidth="1"/>
-    <col min="14" max="15" width="7.88671875" customWidth="1"/>
-    <col min="16" max="18" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="7.625" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="5.75" customWidth="1"/>
+    <col min="14" max="15" width="7.875" customWidth="1"/>
+    <col min="16" max="18" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2302,7 +2387,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2351,7 +2436,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -2400,7 +2485,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -2430,7 +2515,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
@@ -2491,7 +2576,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>121</v>
       </c>
@@ -2515,7 +2600,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>122</v>
       </c>
@@ -2539,7 +2624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>123</v>
       </c>
@@ -2569,7 +2654,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>53</v>
       </c>
@@ -2593,7 +2678,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>124</v>
       </c>
@@ -2617,7 +2702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>125</v>
       </c>
@@ -2641,7 +2726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>126</v>
       </c>
@@ -2667,7 +2752,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>127</v>
       </c>
@@ -2693,7 +2778,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>128</v>
       </c>
@@ -2722,7 +2807,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>137</v>
       </c>
@@ -2745,7 +2830,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>129</v>
       </c>
@@ -2768,7 +2853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>130</v>
       </c>
@@ -2791,7 +2876,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>138</v>
       </c>
@@ -2815,7 +2900,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>139</v>
       </c>
@@ -2839,7 +2924,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>140</v>
       </c>
@@ -2863,7 +2948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>141</v>
       </c>
@@ -2886,7 +2971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>142</v>
       </c>
@@ -2909,7 +2994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>143</v>
       </c>
@@ -2932,7 +3017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>144</v>
       </c>
@@ -2970,7 +3055,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>146</v>
       </c>
@@ -3008,7 +3093,7 @@
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>147</v>
       </c>
@@ -3046,7 +3131,7 @@
       </c>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
         <v>274</v>
       </c>
@@ -3072,12 +3157,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="D28" s="13"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="22" t="s">
         <v>322</v>
       </c>
@@ -3100,7 +3185,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="22" t="s">
         <v>326</v>
       </c>
@@ -3134,12 +3219,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="D31" s="13"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
         <v>363</v>
       </c>
@@ -3162,7 +3247,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="22" t="s">
         <v>364</v>
       </c>
@@ -3185,7 +3270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="22" t="s">
         <v>365</v>
       </c>
@@ -3208,7 +3293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="22" t="s">
         <v>366</v>
       </c>
@@ -3242,7 +3327,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="22" t="s">
         <v>367</v>
       </c>
@@ -3276,7 +3361,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="37" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="22"/>
       <c r="D37" s="24"/>
       <c r="E37" s="19"/>
@@ -3295,7 +3380,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>381</v>
       </c>
@@ -3325,7 +3410,7 @@
       <c r="N38" s="3"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>384</v>
       </c>
@@ -3359,7 +3444,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="19"/>
       <c r="E40" s="19"/>
@@ -3375,7 +3460,7 @@
       <c r="P40" s="22"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>148</v>
       </c>
@@ -3398,7 +3483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>149</v>
       </c>
@@ -3421,7 +3506,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>150</v>
       </c>
@@ -3444,7 +3529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>151</v>
       </c>
@@ -3467,7 +3552,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>152</v>
       </c>
@@ -3490,7 +3575,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>153</v>
       </c>
@@ -3513,7 +3598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>154</v>
       </c>
@@ -3536,7 +3621,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>155</v>
       </c>
@@ -3559,7 +3644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>157</v>
       </c>
@@ -3588,7 +3673,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>158</v>
       </c>
@@ -3617,7 +3702,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="13" t="s">
         <v>165</v>
       </c>
@@ -3646,7 +3731,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>159</v>
       </c>
@@ -3675,7 +3760,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>160</v>
       </c>
@@ -3704,7 +3789,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55" s="20" t="s">
         <v>243</v>
       </c>
@@ -3727,7 +3812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56" s="20" t="s">
         <v>244</v>
       </c>
@@ -3750,7 +3835,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B57" s="20" t="s">
         <v>245</v>
       </c>
@@ -3773,7 +3858,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B58" s="20" t="s">
         <v>246</v>
       </c>
@@ -3796,7 +3881,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59" s="20" t="s">
         <v>247</v>
       </c>
@@ -3819,7 +3904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B60" s="20" t="s">
         <v>248</v>
       </c>
@@ -3842,7 +3927,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B61" s="20" t="s">
         <v>249</v>
       </c>
@@ -3865,7 +3950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B62" s="20" t="s">
         <v>259</v>
       </c>
@@ -3894,7 +3979,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B63" s="20" t="s">
         <v>260</v>
       </c>
@@ -3923,7 +4008,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B64" s="20" t="s">
         <v>261</v>
       </c>
@@ -3952,7 +4037,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B65" s="20" t="s">
         <v>262</v>
       </c>
@@ -3981,7 +4066,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B66" s="20" t="s">
         <v>263</v>
       </c>
@@ -4010,7 +4095,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B67" s="20" t="s">
         <v>264</v>
       </c>
@@ -4039,10 +4124,10 @@
         <v>272</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B68" s="20"/>
     </row>
-    <row r="69" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
         <v>192</v>
       </c>
@@ -4081,7 +4166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
@@ -4091,7 +4176,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>193</v>
       </c>
@@ -4127,7 +4212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
@@ -4137,7 +4222,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>194</v>
       </c>
@@ -4170,7 +4255,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
         <v>195</v>
       </c>
@@ -4206,7 +4291,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
         <v>196</v>
       </c>
@@ -4242,7 +4327,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>197</v>
       </c>
@@ -4278,7 +4363,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>198</v>
       </c>
@@ -4310,7 +4395,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
         <v>199</v>
       </c>
@@ -4336,7 +4421,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
@@ -4349,7 +4434,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
         <v>200</v>
       </c>
@@ -4375,7 +4460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
@@ -4388,7 +4473,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
         <v>201</v>
       </c>
@@ -4414,7 +4499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
@@ -4427,7 +4512,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>202</v>
       </c>
@@ -4451,7 +4536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>203</v>
       </c>
@@ -4474,8 +4559,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
         <v>204</v>
       </c>
@@ -4504,7 +4589,7 @@
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>205</v>
       </c>
@@ -4533,7 +4618,7 @@
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>206</v>
       </c>
@@ -4562,7 +4647,7 @@
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>207</v>
       </c>
@@ -4595,7 +4680,7 @@
       </c>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>208</v>
       </c>
@@ -4628,7 +4713,7 @@
       </c>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
         <v>209</v>
       </c>
@@ -4661,7 +4746,7 @@
       </c>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
         <v>210</v>
       </c>
@@ -4690,7 +4775,7 @@
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
         <v>211</v>
       </c>
@@ -4719,7 +4804,7 @@
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
         <v>212</v>
       </c>
@@ -4748,7 +4833,7 @@
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
         <v>213</v>
       </c>
@@ -4777,7 +4862,7 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>214</v>
       </c>
@@ -4806,7 +4891,7 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>215</v>
       </c>
@@ -4835,7 +4920,7 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
         <v>216</v>
       </c>
@@ -4868,7 +4953,7 @@
       </c>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
         <v>217</v>
       </c>
@@ -4901,7 +4986,7 @@
       </c>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
         <v>218</v>
       </c>
@@ -4934,7 +5019,7 @@
       </c>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
         <v>219</v>
       </c>
@@ -4963,7 +5048,7 @@
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
         <v>220</v>
       </c>
@@ -4992,7 +5077,7 @@
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
         <v>221</v>
       </c>
@@ -5021,7 +5106,7 @@
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
         <v>222</v>
       </c>
@@ -5050,7 +5135,7 @@
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
         <v>223</v>
       </c>
@@ -5079,7 +5164,7 @@
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
         <v>224</v>
       </c>
@@ -5108,7 +5193,7 @@
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
         <v>225</v>
       </c>
@@ -5137,7 +5222,7 @@
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
         <v>226</v>
       </c>
@@ -5166,7 +5251,7 @@
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
         <v>227</v>
       </c>
@@ -5195,7 +5280,7 @@
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
         <v>228</v>
       </c>
@@ -5228,7 +5313,7 @@
       </c>
       <c r="Q111" s="2"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B112" s="3" t="s">
         <v>229</v>
       </c>
@@ -5261,7 +5346,7 @@
       </c>
       <c r="Q112" s="2"/>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
         <v>230</v>
       </c>
@@ -5294,7 +5379,7 @@
       </c>
       <c r="Q113" s="2"/>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
         <v>231</v>
       </c>
@@ -5327,7 +5412,7 @@
       </c>
       <c r="Q114" s="3"/>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
         <v>232</v>
       </c>
@@ -5360,7 +5445,7 @@
       </c>
       <c r="Q115" s="3"/>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
         <v>233</v>
       </c>
@@ -5393,7 +5478,7 @@
       </c>
       <c r="Q116" s="3"/>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
         <v>234</v>
       </c>
@@ -5425,7 +5510,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
         <v>235</v>
       </c>
@@ -5457,7 +5542,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B119" s="3" t="s">
         <v>236</v>
       </c>
@@ -5489,7 +5574,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
         <v>237</v>
       </c>
@@ -5515,7 +5600,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
         <v>238</v>
       </c>
@@ -5541,7 +5626,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
         <v>239</v>
       </c>
@@ -5567,7 +5652,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B123" s="3" t="s">
         <v>240</v>
       </c>
@@ -5593,7 +5678,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
         <v>241</v>
       </c>
@@ -5619,7 +5704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B125" s="3" t="s">
         <v>242</v>
       </c>
@@ -5645,7 +5730,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B126" s="23" t="s">
         <v>285</v>
       </c>
@@ -5671,7 +5756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B127" s="23" t="s">
         <v>286</v>
       </c>
@@ -5697,7 +5782,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B128" s="23" t="s">
         <v>287</v>
       </c>
@@ -5729,7 +5814,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>333</v>
       </c>
@@ -5763,7 +5848,7 @@
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>334</v>
       </c>
@@ -5797,7 +5882,7 @@
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>335</v>
       </c>
@@ -5831,7 +5916,7 @@
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B133" s="23" t="s">
         <v>344</v>
       </c>
@@ -5863,7 +5948,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B134" s="23" t="s">
         <v>346</v>
       </c>
@@ -5895,7 +5980,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B135" s="23" t="s">
         <v>348</v>
       </c>
@@ -5927,7 +6012,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B136" s="23"/>
       <c r="C136" s="13"/>
       <c r="E136" s="3"/>
@@ -5941,7 +6026,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="138" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="3" t="s">
         <v>389</v>
       </c>
@@ -5975,57 +6060,379 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130:B132 B68:B125 B1:B26 B41:B61 B137:B1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H61">
-    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108:H110">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H120:H122">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P62">
-    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63">
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P64">
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P65">
-    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P66">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P67">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56BAD2C-2E1F-4720-A641-CAE899ED4AB2}">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="27"/>
+      <c r="K1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="27"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="30"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="E6" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="E7" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AttackArea.xlsx
@@ -1,40 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33682B4-76EF-4858-AF45-1997CE2AD653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3E92B5-DDBB-40E0-B6B1-853F476118DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="玩家技能" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="433">
   <si>
     <t>##var</t>
   </si>
@@ -1136,9 +1123,6 @@
     <t>SelectObject_AutoUnitOne_TowerDragon3</t>
   </si>
   <si>
-    <t>SelectObject_AutoUnitOne_Elec1</t>
-  </si>
-  <si>
     <t>SelectObject_AutoUnitOne_Elec2</t>
   </si>
   <si>
@@ -1585,6 +1569,146 @@
   </si>
   <si>
     <t>BuffAdd_PlayerSkill_IceBind</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Monster_FireSpirit1</t>
+  </si>
+  <si>
+    <t>SelectObject_Monster_FireSpirit1</t>
+  </si>
+  <si>
+    <t>怪物技能-火精灵1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Tower_Debuff_Burning</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔自身燃烧</t>
+  </si>
+  <si>
+    <t>AttackArea_Tower_Burning</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Monster_FireSpirit2</t>
+  </si>
+  <si>
+    <t>怪物技能-火精灵2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-火精灵1_燃烧</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Monster_FireSpirit3</t>
+  </si>
+  <si>
+    <t>怪物技能-火精灵3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Monster_StoneGolem2</t>
+  </si>
+  <si>
+    <t>怪物技能-石像2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_StoneGolem2_Damage</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Monster_StoneGolem3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-石像3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DamageUnit_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monster_StoneGolem3</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Monster_Scorpid1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-麻痹蝎1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Monster_Scorpid1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DamageUnit_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monster_FireSpirit1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_PlayerAoe2_Crit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮LV2伤害-暴击</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_PlayerAoe3_All</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_PlayerAoe2_Crit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Circle2_Slow</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Circle3_Break</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_TowerElec2_Stun</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_TowerBomb2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_AutoUnitOne_Elec1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1823,6 +1947,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1841,9 +1968,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1851,87 +1975,7 @@
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="好 3" xfId="3" xr:uid="{F37074F8-BB21-4752-9520-5363098F3E8A}"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2313,11 +2357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y138"/>
+  <dimension ref="A1:Y146"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomLeft" activeCell="O23" sqref="O23:S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2363,22 +2407,22 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="26" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="26" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="27"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="28"/>
       <c r="S1"/>
       <c r="T1"/>
       <c r="U1"/>
@@ -2461,22 +2505,22 @@
       <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="29" t="s">
+      <c r="J3" s="31"/>
+      <c r="K3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="29" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="30"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="31"/>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -2704,10 +2748,10 @@
     </row>
     <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>424</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>172</v>
+        <v>425</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="b">
@@ -2717,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>298</v>
+        <v>426</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>48</v>
+        <v>427</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>45</v>
@@ -2728,11 +2772,12 @@
     </row>
     <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>173</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D12" s="19"/>
       <c r="E12" s="19" t="b">
         <v>0</v>
       </c>
@@ -2740,24 +2785,21 @@
         <v>0</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>377</v>
+      <c r="I12" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E13" s="19" t="b">
         <v>0</v>
@@ -2766,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>48</v>
@@ -2774,16 +2816,19 @@
       <c r="I13" s="17" t="s">
         <v>45</v>
       </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
       <c r="P13" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14" s="19" t="b">
         <v>0</v>
@@ -2792,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>48</v>
@@ -2804,15 +2849,15 @@
         <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>273</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" s="19" t="b">
         <v>0</v>
@@ -2821,21 +2866,27 @@
         <v>0</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>45</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E16" s="19" t="b">
         <v>0</v>
@@ -2844,10 +2895,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>45</v>
@@ -2855,57 +2906,68 @@
     </row>
     <row r="17" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E17" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="17" t="s">
+      <c r="E18" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>45</v>
+      <c r="I18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19" t="b">
@@ -2915,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>48</v>
@@ -2926,10 +2988,10 @@
     </row>
     <row r="20" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19" t="b">
@@ -2939,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>48</v>
@@ -2948,13 +3010,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>182</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D21" s="19"/>
       <c r="E21" s="19" t="b">
         <v>0</v>
       </c>
@@ -2962,10 +3025,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>45</v>
@@ -2973,10 +3036,10 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E22" s="19" t="b">
         <v>0</v>
@@ -2985,21 +3048,22 @@
         <v>0</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>309</v>
+        <v>432</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E23" s="19" t="b">
         <v>0</v>
@@ -3008,24 +3072,30 @@
         <v>0</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D24" t="s">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="E24" s="19" t="b">
         <v>0</v>
@@ -3033,34 +3103,31 @@
       <c r="F24" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>360</v>
+      <c r="G24" s="17" t="s">
+        <v>309</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q24" s="3"/>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
@@ -3072,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>48</v>
@@ -3089,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D26" t="s">
         <v>60</v>
@@ -3110,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>48</v>
@@ -3127,132 +3194,147 @@
         <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="13" t="s">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>312</v>
-      </c>
-      <c r="H27" s="3" t="s">
+      <c r="E28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>311</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="G28"/>
+      <c r="I28" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="29" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="E29" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>313</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="I29" t="s">
-        <v>45</v>
-      </c>
+      <c r="B29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="G29"/>
     </row>
     <row r="30" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>312</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="E31" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="E30" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H30" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" t="s">
-        <v>45</v>
-      </c>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" s="22" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="G31"/>
     </row>
     <row r="32" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="I32" t="s">
-        <v>45</v>
-      </c>
+      <c r="B32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="G32"/>
     </row>
     <row r="33" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -3261,10 +3343,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I33" t="s">
         <v>45</v>
@@ -3272,10 +3354,10 @@
     </row>
     <row r="34" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -3284,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I34" t="s">
         <v>45</v>
@@ -3295,44 +3377,33 @@
     </row>
     <row r="35" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="E35" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="H35" t="s">
-        <v>52</v>
+        <v>369</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>324</v>
       </c>
       <c r="I35" t="s">
         <v>45</v>
-      </c>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" s="22" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="36" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="E36" s="19" t="b">
         <v>0</v>
@@ -3341,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H36" t="s">
         <v>52</v>
@@ -3358,16 +3429,31 @@
         <v>0</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="22"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="H37"/>
-      <c r="I37"/>
+      <c r="B37" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="E37" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="H37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" t="s">
+        <v>45</v>
+      </c>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
@@ -3380,1154 +3466,1220 @@
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="22"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" s="22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="24" t="s">
+      <c r="E39" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E38" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="H39" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="D40" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="E40" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" s="22" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E41" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="I41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41" s="22"/>
+    </row>
+    <row r="42" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>311</v>
+      </c>
+      <c r="H42" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="Q38" s="3"/>
-    </row>
-    <row r="39" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="E39" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P42" s="22"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E43" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H43" t="s">
         <v>52</v>
       </c>
-      <c r="I39" t="s">
-        <v>45</v>
-      </c>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" s="22" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
-      <c r="C40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E41" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>313</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="I41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>313</v>
-      </c>
-      <c r="H42" t="s">
-        <v>185</v>
-      </c>
-      <c r="I42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>313</v>
-      </c>
-      <c r="H43" t="s">
-        <v>186</v>
-      </c>
-      <c r="I43" t="s">
-        <v>45</v>
-      </c>
+      <c r="I43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>313</v>
+      <c r="B44" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="E44" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="H44" t="s">
-        <v>187</v>
-      </c>
-      <c r="I44" t="s">
-        <v>45</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>313</v>
+      <c r="B45" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="E45" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="H45" t="s">
-        <v>188</v>
-      </c>
-      <c r="I45" t="s">
-        <v>45</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>313</v>
-      </c>
-      <c r="H46" t="s">
-        <v>189</v>
-      </c>
-      <c r="I46" t="s">
-        <v>45</v>
-      </c>
+      <c r="B46" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E46" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
-        <v>313</v>
+      <c r="B47" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="E47" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="H47" t="s">
-        <v>190</v>
-      </c>
-      <c r="I47" t="s">
-        <v>45</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E48" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>313</v>
-      </c>
-      <c r="H48" t="s">
-        <v>191</v>
-      </c>
-      <c r="I48" t="s">
-        <v>45</v>
-      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E49" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H49" t="s">
-        <v>251</v>
+        <v>156</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>312</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>323</v>
       </c>
       <c r="I49" t="s">
         <v>45</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" s="13" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>314</v>
+        <v>156</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>312</v>
       </c>
       <c r="H50" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="I50" t="s">
         <v>45</v>
       </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="13" t="s">
-        <v>165</v>
+      <c r="B51" t="s">
+        <v>150</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E51" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>314</v>
+        <v>156</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>312</v>
       </c>
       <c r="H51" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="I51" t="s">
         <v>45</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" s="13" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E52" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>314</v>
+        <v>156</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>312</v>
       </c>
       <c r="H52" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="I52" t="s">
         <v>45</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>312</v>
+      </c>
+      <c r="H53" t="s">
+        <v>188</v>
+      </c>
+      <c r="I53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>312</v>
+      </c>
+      <c r="H54" t="s">
+        <v>189</v>
+      </c>
+      <c r="I54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>312</v>
+      </c>
+      <c r="H55" t="s">
+        <v>190</v>
+      </c>
+      <c r="I55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>312</v>
+      </c>
+      <c r="H56" t="s">
+        <v>191</v>
+      </c>
+      <c r="I56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H57" t="s">
+        <v>251</v>
+      </c>
+      <c r="I57" t="s">
+        <v>45</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58" t="s">
+        <v>45</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B59" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H59" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" t="s">
+        <v>45</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H60" t="s">
+        <v>52</v>
+      </c>
+      <c r="I60" t="s">
+        <v>45</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D61" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E53" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="E61" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H61" t="s">
         <v>52</v>
       </c>
-      <c r="I53" t="s">
-        <v>45</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="s">
+      <c r="I61" t="s">
+        <v>45</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s">
-        <v>313</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="I55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E56" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
-        <v>313</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="I56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E57" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
-        <v>313</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="I57" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B58" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E58" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
-        <v>313</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="I58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B59" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E59" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" t="s">
-        <v>313</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="I59" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B60" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E60" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" t="s">
-        <v>313</v>
-      </c>
-      <c r="H60" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="I60" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B61" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E61" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" t="s">
-        <v>313</v>
-      </c>
-      <c r="H61" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="I61" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B62" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E62" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H62" t="s">
-        <v>52</v>
-      </c>
-      <c r="I62" t="s">
-        <v>45</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" s="20" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B63" s="20" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E63" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H63" t="s">
-        <v>52</v>
+        <v>250</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>312</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>252</v>
       </c>
       <c r="I63" t="s">
         <v>45</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" s="20" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B64" s="20" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E64" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H64" t="s">
-        <v>52</v>
+        <v>250</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>312</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>253</v>
       </c>
       <c r="I64" t="s">
         <v>45</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" s="20" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B65" s="20" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E65" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H65" t="s">
-        <v>52</v>
+        <v>250</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>312</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>254</v>
       </c>
       <c r="I65" t="s">
         <v>45</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" s="20" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B66" s="20" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E66" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H66" t="s">
-        <v>52</v>
+        <v>250</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>312</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>255</v>
       </c>
       <c r="I66" t="s">
         <v>45</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66" s="20" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B67" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>312</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="I67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B68" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>312</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="I68" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B69" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>312</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="I69" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B70" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E70" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H70" t="s">
+        <v>52</v>
+      </c>
+      <c r="I70" t="s">
+        <v>45</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B71" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E71" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H71" t="s">
+        <v>52</v>
+      </c>
+      <c r="I71" t="s">
+        <v>45</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B72" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E72" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H72" t="s">
+        <v>52</v>
+      </c>
+      <c r="I72" t="s">
+        <v>45</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" s="20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B73" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E73" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H73" t="s">
+        <v>52</v>
+      </c>
+      <c r="I73" t="s">
+        <v>45</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B74" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E74" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H74" t="s">
+        <v>52</v>
+      </c>
+      <c r="I74" t="s">
+        <v>45</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B75" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D75" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="E67" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="E75" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H75" t="s">
         <v>52</v>
       </c>
-      <c r="I67" t="s">
-        <v>45</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67" s="20" t="s">
+      <c r="I75" t="s">
+        <v>45</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" s="20" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B68" s="20"/>
-    </row>
-    <row r="69" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E69" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F69" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K69" s="3">
-        <v>0</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O69" s="3">
-        <v>0</v>
-      </c>
-      <c r="P69" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="17"/>
-      <c r="L70" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E71" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G71" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K71" s="3">
-        <v>0</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O71" s="3">
-        <v>0</v>
-      </c>
-      <c r="P71" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="17"/>
-      <c r="L72" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E73" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K73" s="3">
-        <v>0</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O73" s="3">
-        <v>0</v>
-      </c>
-      <c r="P73" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E74" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F74" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K74" s="3">
-        <v>0</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O74" s="3">
-        <v>0</v>
-      </c>
-      <c r="P74" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E75" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F75" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K75" s="3">
-        <v>0</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O75" s="3">
-        <v>0</v>
-      </c>
-      <c r="P75" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E76" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F76" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>49</v>
-      </c>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B76" s="20"/>
     </row>
     <row r="77" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>50</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C77" s="11"/>
       <c r="D77" s="11" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E77" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="11" t="b">
         <v>0</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="O77" s="3">
         <v>0</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E78" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F78" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="18"/>
-      <c r="O79" s="4">
-        <v>0</v>
-      </c>
-      <c r="P79" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E80" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="18"/>
-      <c r="O81" s="4">
-        <v>0</v>
-      </c>
-      <c r="P81" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E82" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F82" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="18"/>
-      <c r="O83" s="4">
-        <v>0</v>
-      </c>
-      <c r="P83" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="17"/>
+      <c r="L78" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O79" s="3">
+        <v>0</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="17"/>
+      <c r="L80" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O82" s="3">
+        <v>0</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E83" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D84" s="11"/>
+        <v>197</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="E84" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="11" t="b">
         <v>0</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>48</v>
@@ -4535,201 +4687,183 @@
       <c r="I84" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="85" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E85" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>318</v>
+        <v>198</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E85" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>316</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="86" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B87" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C87" t="s">
-        <v>64</v>
-      </c>
-      <c r="D87" t="s">
-        <v>65</v>
-      </c>
-      <c r="E87" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G87" t="s">
-        <v>311</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B88" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C88" t="s">
-        <v>66</v>
-      </c>
-      <c r="D88" t="s">
-        <v>65</v>
-      </c>
-      <c r="E88" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G88" t="s">
-        <v>311</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B89" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" t="s">
-        <v>67</v>
-      </c>
-      <c r="D89" t="s">
-        <v>65</v>
-      </c>
-      <c r="E89" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G89" t="s">
-        <v>311</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B90" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C90" t="s">
-        <v>68</v>
-      </c>
-      <c r="D90" t="s">
-        <v>69</v>
-      </c>
-      <c r="E90" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F90" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G90" t="s">
-        <v>311</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O90" s="2">
-        <v>0</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q90" s="2"/>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B91" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C91" t="s">
-        <v>71</v>
-      </c>
-      <c r="D91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E91" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G91" t="s">
-        <v>311</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O91" s="2">
-        <v>0</v>
-      </c>
-      <c r="P91" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q91" s="2"/>
-    </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="18"/>
+      <c r="O87" s="4">
+        <v>0</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="18"/>
+      <c r="O89" s="4">
+        <v>0</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E90" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="18"/>
+      <c r="O91" s="4">
+        <v>0</v>
+      </c>
+      <c r="P91" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C92" t="s">
-        <v>73</v>
-      </c>
-      <c r="D92" t="s">
-        <v>69</v>
-      </c>
-      <c r="E92" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F92" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G92" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" s="17" t="s">
         <v>311</v>
       </c>
       <c r="H92" s="3" t="s">
@@ -4738,23 +4872,13 @@
       <c r="I92" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O92" s="2">
-        <v>0</v>
-      </c>
-      <c r="P92" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q92" s="2"/>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C93" t="s">
-        <v>75</v>
-      </c>
-      <c r="D93" t="s">
-        <v>47</v>
+        <v>203</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E93" s="3" t="b">
         <v>0</v>
@@ -4762,8 +4886,8 @@
       <c r="F93" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G93" t="s">
-        <v>312</v>
+      <c r="G93" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>48</v>
@@ -4771,48 +4895,17 @@
       <c r="I93" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B94" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C94" t="s">
-        <v>76</v>
-      </c>
-      <c r="D94" t="s">
-        <v>47</v>
-      </c>
-      <c r="E94" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G94" t="s">
-        <v>312</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-    </row>
+    </row>
+    <row r="94" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C95" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D95" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E95" s="3" t="b">
         <v>0</v>
@@ -4821,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>48</v>
@@ -4835,13 +4928,13 @@
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C96" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D96" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E96" s="3" t="b">
         <v>0</v>
@@ -4850,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>48</v>
@@ -4864,13 +4957,13 @@
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C97" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D97" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E97" s="3" t="b">
         <v>0</v>
@@ -4879,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>48</v>
@@ -4893,13 +4986,13 @@
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C98" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D98" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E98" s="3" t="b">
         <v>0</v>
@@ -4908,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>48</v>
@@ -4916,16 +5009,20 @@
       <c r="I98" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
+      <c r="O98" s="2">
+        <v>0</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="Q98" s="2"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C99" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D99" t="s">
         <v>69</v>
@@ -4937,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>48</v>
@@ -4949,16 +5046,16 @@
         <v>0</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="Q99" s="2"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C100" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D100" t="s">
         <v>69</v>
@@ -4970,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>48</v>
@@ -4982,19 +5079,19 @@
         <v>0</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="Q100" s="2"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D101" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E101" s="3" t="b">
         <v>0</v>
@@ -5011,20 +5108,16 @@
       <c r="I101" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O101" s="2">
-        <v>0</v>
-      </c>
-      <c r="P101" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C102" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D102" t="s">
         <v>47</v>
@@ -5036,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>48</v>
@@ -5050,10 +5143,10 @@
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C103" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D103" t="s">
         <v>47</v>
@@ -5065,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>48</v>
@@ -5079,10 +5172,10 @@
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C104" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D104" t="s">
         <v>47</v>
@@ -5094,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>48</v>
@@ -5108,13 +5201,13 @@
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C105" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D105" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E105" s="3" t="b">
         <v>0</v>
@@ -5123,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>48</v>
@@ -5137,13 +5230,13 @@
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C106" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D106" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E106" s="3" t="b">
         <v>0</v>
@@ -5152,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>48</v>
@@ -5166,13 +5259,13 @@
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C107" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D107" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E107" s="3" t="b">
         <v>0</v>
@@ -5181,27 +5274,31 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>329</v>
+        <v>48</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
+      <c r="O107" s="2">
+        <v>0</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="Q107" s="2"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D108" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E108" s="3" t="b">
         <v>0</v>
@@ -5209,28 +5306,32 @@
       <c r="F108" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G108" s="13" t="s">
-        <v>357</v>
+      <c r="G108" t="s">
+        <v>310</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>330</v>
+        <v>48</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
+      <c r="O108" s="2">
+        <v>0</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="Q108" s="2"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C109" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D109" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E109" s="3" t="b">
         <v>0</v>
@@ -5238,28 +5339,32 @@
       <c r="F109" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G109" s="13" t="s">
-        <v>358</v>
+      <c r="G109" t="s">
+        <v>310</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>331</v>
+        <v>48</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
+      <c r="O109" s="2">
+        <v>0</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="Q109" s="2"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C110" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D110" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E110" s="3" t="b">
         <v>0</v>
@@ -5267,11 +5372,11 @@
       <c r="F110" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G110" s="13" t="s">
-        <v>359</v>
+      <c r="G110" t="s">
+        <v>311</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>332</v>
+        <v>48</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>45</v>
@@ -5282,13 +5387,13 @@
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C111" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D111" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="E111" s="3" t="b">
         <v>0</v>
@@ -5297,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>48</v>
@@ -5305,23 +5410,19 @@
       <c r="I111" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O111" s="2">
-        <v>0</v>
-      </c>
-      <c r="P111" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B112" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C112" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D112" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="E112" s="3" t="b">
         <v>0</v>
@@ -5330,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>48</v>
@@ -5338,23 +5439,19 @@
       <c r="I112" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O112" s="2">
-        <v>0</v>
-      </c>
-      <c r="P112" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C113" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D113" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E113" s="3" t="b">
         <v>0</v>
@@ -5363,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>48</v>
@@ -5371,23 +5468,19 @@
       <c r="I113" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O113" s="2">
-        <v>0</v>
-      </c>
-      <c r="P113" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C114" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D114" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E114" s="3" t="b">
         <v>0</v>
@@ -5404,23 +5497,19 @@
       <c r="I114" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O114" s="3">
-        <v>0</v>
-      </c>
-      <c r="P114" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q114" s="3"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D115" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E115" s="3" t="b">
         <v>0</v>
@@ -5432,28 +5521,24 @@
         <v>311</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>48</v>
+        <v>328</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O115" s="3">
-        <v>0</v>
-      </c>
-      <c r="P115" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q115" s="3"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C116" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D116" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E116" s="3" t="b">
         <v>0</v>
@@ -5461,32 +5546,28 @@
       <c r="F116" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G116" t="s">
-        <v>311</v>
+      <c r="G116" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>48</v>
+        <v>329</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O116" s="3">
-        <v>0</v>
-      </c>
-      <c r="P116" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q116" s="3"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C117" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D117" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="E117" s="3" t="b">
         <v>0</v>
@@ -5494,31 +5575,28 @@
       <c r="F117" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G117" t="s">
-        <v>312</v>
+      <c r="G117" s="13" t="s">
+        <v>357</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>48</v>
+        <v>330</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O117" s="3">
-        <v>0</v>
-      </c>
-      <c r="P117" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C118" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D118" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="E118" s="3" t="b">
         <v>0</v>
@@ -5526,31 +5604,28 @@
       <c r="F118" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G118" t="s">
-        <v>312</v>
+      <c r="G118" s="13" t="s">
+        <v>358</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O118" s="3">
-        <v>0</v>
-      </c>
-      <c r="P118" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B119" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C119" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D119" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E119" s="3" t="b">
         <v>0</v>
@@ -5559,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>48</v>
@@ -5567,22 +5642,23 @@
       <c r="I119" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O119" s="3">
-        <v>0</v>
-      </c>
-      <c r="P119" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="O119" s="2">
+        <v>0</v>
+      </c>
+      <c r="P119" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q119" s="2"/>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C120" t="s">
-        <v>96</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>62</v>
+        <v>99</v>
+      </c>
+      <c r="D120" t="s">
+        <v>97</v>
       </c>
       <c r="E120" s="3" t="b">
         <v>0</v>
@@ -5591,24 +5667,31 @@
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>312</v>
-      </c>
-      <c r="H120" s="22" t="s">
-        <v>282</v>
+        <v>311</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="O120" s="2">
+        <v>0</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q120" s="2"/>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C121" t="s">
-        <v>99</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>62</v>
+        <v>101</v>
+      </c>
+      <c r="D121" t="s">
+        <v>97</v>
       </c>
       <c r="E121" s="3" t="b">
         <v>0</v>
@@ -5617,24 +5700,31 @@
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>312</v>
-      </c>
-      <c r="H121" s="22" t="s">
-        <v>283</v>
+        <v>311</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="O121" s="2">
+        <v>0</v>
+      </c>
+      <c r="P121" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q121" s="2"/>
     </row>
     <row r="122" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C122" t="s">
-        <v>101</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>62</v>
+        <v>103</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
       </c>
       <c r="E122" s="3" t="b">
         <v>0</v>
@@ -5643,24 +5733,31 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>312</v>
-      </c>
-      <c r="H122" s="22" t="s">
-        <v>284</v>
+        <v>310</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="O122" s="3">
+        <v>0</v>
+      </c>
+      <c r="P122" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q122" s="3"/>
     </row>
     <row r="123" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B123" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C123" t="s">
-        <v>81</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>62</v>
+        <v>105</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
       </c>
       <c r="E123" s="3" t="b">
         <v>0</v>
@@ -5669,24 +5766,31 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="O123" s="3">
+        <v>0</v>
+      </c>
+      <c r="P123" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q123" s="3"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C124" t="s">
-        <v>83</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>62</v>
+        <v>107</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
       </c>
       <c r="E124" s="3" t="b">
         <v>0</v>
@@ -5695,24 +5799,31 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="O124" s="3">
+        <v>0</v>
+      </c>
+      <c r="P124" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q124" s="3"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B125" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C125" t="s">
-        <v>85</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>62</v>
+        <v>109</v>
+      </c>
+      <c r="D125" t="s">
+        <v>110</v>
       </c>
       <c r="E125" s="3" t="b">
         <v>0</v>
@@ -5721,24 +5832,30 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="O125" s="3">
+        <v>0</v>
+      </c>
+      <c r="P125" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B126" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>288</v>
+      <c r="B126" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C126" t="s">
+        <v>112</v>
       </c>
       <c r="D126" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="E126" s="3" t="b">
         <v>0</v>
@@ -5747,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>48</v>
@@ -5755,16 +5872,22 @@
       <c r="I126" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="O126" s="3">
+        <v>0</v>
+      </c>
+      <c r="P126" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B127" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>289</v>
+      <c r="B127" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C127" t="s">
+        <v>114</v>
       </c>
       <c r="D127" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="E127" s="3" t="b">
         <v>0</v>
@@ -5773,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>48</v>
@@ -5781,16 +5904,22 @@
       <c r="I127" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="O127" s="3">
+        <v>0</v>
+      </c>
+      <c r="P127" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="128" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B128" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="D128" t="s">
-        <v>65</v>
+      <c r="B128" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C128" t="s">
+        <v>96</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="E128" s="3" t="b">
         <v>0</v>
@@ -5799,132 +5928,128 @@
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>321</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>48</v>
+        <v>311</v>
+      </c>
+      <c r="H128" s="22" t="s">
+        <v>282</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O128">
-        <v>0</v>
-      </c>
-      <c r="P128" s="13" t="s">
-        <v>291</v>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B129" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C129" t="s">
+        <v>99</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E129" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
+        <v>311</v>
+      </c>
+      <c r="H129" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
-        <v>333</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>337</v>
+      <c r="B130" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C130" t="s">
+        <v>101</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E130" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F130" s="19" t="b">
+        <v>62</v>
+      </c>
+      <c r="E130" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>312</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>48</v>
+        <v>311</v>
+      </c>
+      <c r="H130" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="I130" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3"/>
-      <c r="N130" s="3"/>
-      <c r="O130" s="3"/>
-      <c r="P130" s="3"/>
-      <c r="Q130" s="3"/>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>334</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>338</v>
+      <c r="B131" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C131" t="s">
+        <v>81</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E131" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F131" s="19" t="b">
+        <v>62</v>
+      </c>
+      <c r="E131" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="3"/>
-      <c r="M131" s="3"/>
-      <c r="N131" s="3"/>
-      <c r="O131" s="3"/>
-      <c r="P131" s="3"/>
-      <c r="Q131" s="3"/>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>335</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>339</v>
+      <c r="B132" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C132" t="s">
+        <v>83</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E132" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F132" s="19" t="b">
+        <v>62</v>
+      </c>
+      <c r="E132" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F132" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
-      <c r="M132" s="3"/>
-      <c r="N132" s="3"/>
-      <c r="O132" s="3"/>
-      <c r="P132" s="3"/>
-      <c r="Q132" s="3"/>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B133" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="D133" t="s">
-        <v>343</v>
+      <c r="B133" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C133" t="s">
+        <v>85</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="E133" s="3" t="b">
         <v>0</v>
@@ -5933,30 +6058,24 @@
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>353</v>
+        <v>118</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="O133">
-        <v>0</v>
-      </c>
-      <c r="P133" s="13" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B134" s="23" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="D134" t="s">
-        <v>343</v>
+        <v>65</v>
       </c>
       <c r="E134" s="3" t="b">
         <v>0</v>
@@ -5965,87 +6084,311 @@
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>354</v>
+        <v>48</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="O134">
-        <v>0</v>
-      </c>
-      <c r="P134" s="13" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B135" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D135" t="s">
+        <v>65</v>
+      </c>
+      <c r="E135" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>319</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135" s="13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B136" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D136" t="s">
+        <v>65</v>
+      </c>
+      <c r="E136" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F136" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>320</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>332</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E138" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F138" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>311</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="3"/>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>333</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E139" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F139" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="s">
+        <v>311</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>334</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E140" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>311</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="3"/>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="3"/>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B141" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D141" t="s">
+        <v>342</v>
+      </c>
+      <c r="E141" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>344</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="142" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B142" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D142" t="s">
+        <v>342</v>
+      </c>
+      <c r="E142" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" t="s">
+        <v>346</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B143" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D143" t="s">
+        <v>342</v>
+      </c>
+      <c r="E143" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G143" t="s">
         <v>348</v>
       </c>
-      <c r="C135" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="D135" t="s">
-        <v>343</v>
-      </c>
-      <c r="E135" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F135" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G135" t="s">
+      <c r="H143" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="H135" s="3" t="s">
+    </row>
+    <row r="144" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B144" s="23"/>
+      <c r="C144" s="13"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="O144">
+        <v>0.5</v>
+      </c>
+      <c r="P144" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="I135" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O135">
-        <v>0</v>
-      </c>
-      <c r="P135" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B136" s="23"/>
-      <c r="C136" s="13"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
-      <c r="O136">
-        <v>0.5</v>
-      </c>
-      <c r="P136" s="13" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="138" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="3" t="s">
+    </row>
+    <row r="146" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C146" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="C138" s="19" t="s">
+      <c r="E146" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F146" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G146" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="E138" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F138" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G138" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="H138" s="3" t="s">
+      <c r="H146" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I138" s="17" t="s">
+      <c r="I146" s="17" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6059,56 +6402,32 @@
     <mergeCell ref="O3:R3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="duplicateValues" dxfId="10" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="9" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="duplicateValues" dxfId="8" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="duplicateValues" dxfId="7" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="duplicateValues" dxfId="6" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+  <conditionalFormatting sqref="B75">
+    <cfRule type="duplicateValues" dxfId="5" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B130:B132 B68:B125 B1:B26 B41:B61 B137:B1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="19"/>
+  <conditionalFormatting sqref="B138:B140 B49:B69 B145:B1048576 B76:B133 B42 B1:B27">
+    <cfRule type="duplicateValues" dxfId="4" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:H61">
-    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H108:H110">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H120:H122">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P62">
-    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P63">
-    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P64">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P65">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P66">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P67">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  <conditionalFormatting sqref="P47">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6119,7 +6438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56BAD2C-2E1F-4720-A641-CAE899ED4AB2}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -6168,22 +6487,22 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="26" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="26" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="27"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="28"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -6252,22 +6571,22 @@
       <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="29" t="s">
+      <c r="J3" s="31"/>
+      <c r="K3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="29" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="30"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="31"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -6349,25 +6668,25 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="D6" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="E6" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E6" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>45</v>
@@ -6381,32 +6700,32 @@
         <v>0</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="D7" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="E7" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="E7" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>401</v>
-      </c>
       <c r="I7" s="3" t="s">
         <v>45</v>
       </c>
@@ -6414,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
